--- a/CVOE/5 Manuscript/Output/YA Output 10_14.xlsx
+++ b/CVOE/5 Manuscript/Output/YA Output 10_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Documents\GitHub\Spring-2019-Projects\CVOE\5 Manuscript\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\Spring-2019-Projects\CVOE\5 Manuscript\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707FCB92-4E67-4302-98BD-A23FD1F30C4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156EEB4B-1B82-4AC6-BDA7-66B627F8D134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15195" yWindow="2940" windowWidth="10215" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORS" sheetId="1" r:id="rId1"/>
@@ -992,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,7 +2837,7 @@
         <v>-1.72413793103443E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>54</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>4.8624617949430397E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>3.5714285714285698E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>56</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>3.1675465407057499E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>57</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>1.3614893025840499E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>3.1979533098816702E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>59</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>4.91803278688525E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>60</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>1.1392053348152201E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>61</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>1.63934426229508E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>62</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>-8.4793668739402395E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>63</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>3.2786885245901697E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>64</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>3.2786885245901697E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
@@ -3293,7 +3293,19 @@
         <v>1.21537591859808E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>3.0640420446176229E-2</v>
+      </c>
+      <c r="P62">
+        <v>1.303728070175438E-2</v>
+      </c>
+      <c r="Q62">
+        <f>_xlfn.T.TEST(O62:O68,P62:P68,2,3)</f>
+        <v>0.16016568602285675</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
@@ -3341,8 +3353,14 @@
         <f t="shared" si="0"/>
         <v>2.3609553009089998E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>4.9999775641810025E-2</v>
+      </c>
+      <c r="P63">
+        <v>4.0906471631205685E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -3390,8 +3408,14 @@
         <f t="shared" si="1"/>
         <v>3.5056238482977474E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>4.0320098043993099E-2</v>
+      </c>
+      <c r="P64">
+        <v>2.697187616648003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -3439,8 +3463,14 @@
         <f t="shared" si="2"/>
         <v>4.5639335111828869E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>7.4140040008687277E-2</v>
+      </c>
+      <c r="P65">
+        <v>6.0963405005793246E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>17</v>
       </c>
@@ -3488,8 +3518,14 @@
         <f t="shared" si="3"/>
         <v>8.9453096819184577E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>4.1350870598539757E-2</v>
+      </c>
+      <c r="P66">
+        <v>4.4651977538004331E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -3537,8 +3573,14 @@
         <f t="shared" si="4"/>
         <v>3.2554862691008456E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>6.3579572761048128E-2</v>
+      </c>
+      <c r="P67">
+        <v>4.2685341887898173E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -3585,6 +3627,68 @@
       <c r="L68">
         <f t="shared" si="5"/>
         <v>1.466424332717154E-2</v>
+      </c>
+      <c r="O68">
+        <v>3.9970019751958151E-2</v>
+      </c>
+      <c r="P68">
+        <v>2.3102551088416551E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <f>AVERAGE(O62:O68)</f>
+        <v>4.8571542464601811E-2</v>
+      </c>
+      <c r="P69">
+        <f>AVERAGE(P65:P68)</f>
+        <v>4.285081888002807E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>3.0640420446176229E-2</v>
+      </c>
+      <c r="C70">
+        <v>4.9999775641810025E-2</v>
+      </c>
+      <c r="D70">
+        <v>4.0320098043993099E-2</v>
+      </c>
+      <c r="E70">
+        <v>7.4140040008687277E-2</v>
+      </c>
+      <c r="F70">
+        <v>4.1350870598539757E-2</v>
+      </c>
+      <c r="G70">
+        <v>6.3579572761048128E-2</v>
+      </c>
+      <c r="H70">
+        <v>3.9970019751958151E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>1.303728070175438E-2</v>
+      </c>
+      <c r="C71">
+        <v>4.0906471631205685E-2</v>
+      </c>
+      <c r="D71">
+        <v>2.697187616648003E-2</v>
+      </c>
+      <c r="E71">
+        <v>6.0963405005793246E-2</v>
+      </c>
+      <c r="F71">
+        <v>4.4651977538004331E-2</v>
+      </c>
+      <c r="G71">
+        <v>4.2685341887898173E-2</v>
+      </c>
+      <c r="H71">
+        <v>2.3102551088416551E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3595,11 +3699,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+      <selection pane="bottomLeft" activeCell="L60" sqref="L2:L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,7 +5544,7 @@
         <v>115.224880382775</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>54</v>
       </c>
@@ -5478,7 +5582,7 @@
         <v>79.422262552933901</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>55</v>
       </c>
@@ -5516,7 +5620,7 @@
         <v>362.506666666667</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>56</v>
       </c>
@@ -5554,7 +5658,7 @@
         <v>232.45614035087701</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>57</v>
       </c>
@@ -5592,7 +5696,7 @@
         <v>-9.8949494949493992</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58</v>
       </c>
@@ -5630,7 +5734,7 @@
         <v>451.14697802197799</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>59</v>
       </c>
@@ -5668,7 +5772,7 @@
         <v>51.310344827586299</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>60</v>
       </c>
@@ -5706,7 +5810,7 @@
         <v>150.42117647058799</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>61</v>
       </c>
@@ -5744,7 +5848,7 @@
         <v>76.481920903954702</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>62</v>
       </c>
@@ -5782,7 +5886,7 @@
         <v>52.968421052631598</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>63</v>
       </c>
@@ -5819,8 +5923,18 @@
       <c r="L58">
         <v>71.593220338983102</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>634.94837882074444</v>
+      </c>
+      <c r="P58">
+        <v>935.72848469356541</v>
+      </c>
+      <c r="Q58">
+        <f>_xlfn.T.TEST(O58:O64,P58:P64, 2,3)</f>
+        <v>5.6545025460806968E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>64</v>
       </c>
@@ -5857,8 +5971,14 @@
       <c r="L59">
         <v>232.48246639392201</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>699.78180470953191</v>
+      </c>
+      <c r="P59">
+        <v>1032.1935502092094</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>65</v>
       </c>
@@ -5895,8 +6015,22 @@
       <c r="L60">
         <v>290.55883361921099</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>667.36509176513812</v>
+      </c>
+      <c r="P60">
+        <v>983.96101745138765</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>1393.2645569125129</v>
+      </c>
+      <c r="P61">
+        <v>2188.0505783010403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
@@ -5944,8 +6078,14 @@
         <f t="shared" si="0"/>
         <v>157.68291243723797</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>1329.4698918581978</v>
+      </c>
+      <c r="P62">
+        <v>2117.8400972290283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -5993,8 +6133,14 @@
         <f t="shared" si="1"/>
         <v>141.60879476104293</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>1402.7986432969974</v>
+      </c>
+      <c r="P63">
+        <v>2248.1043476607797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
@@ -6042,8 +6188,14 @@
         <f t="shared" si="2"/>
         <v>18.435894775247178</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>1245.115730859759</v>
+      </c>
+      <c r="P64">
+        <v>1996.6930593732691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -6091,8 +6243,16 @@
         <f t="shared" si="3"/>
         <v>36.134353759484469</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <f>AVERAGE(O58:O64)</f>
+        <v>1053.2491568889832</v>
+      </c>
+      <c r="P65">
+        <f>AVERAGE(P58:P64)</f>
+        <v>1643.2244478454686</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>15</v>
       </c>
@@ -6141,7 +6301,7 @@
         <v>193.81726619672244</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -6199,8 +6359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E52E70-3B86-40E4-A5AC-F6553037D21C}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CVOE/5 Manuscript/Output/YA Output 10_14.xlsx
+++ b/CVOE/5 Manuscript/Output/YA Output 10_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm.000\Documents\GitHub\Spring-2019-Projects\CVOE\5 Manuscript\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68770589-2A56-461A-8357-EA798119D70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF559639-04C3-4904-AAE4-972E7249D542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERRORS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>subID</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>local_switch_cost_rand_zRT</t>
+  </si>
+  <si>
+    <t>36b</t>
   </si>
 </sst>
 </file>
@@ -995,11 +998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81:B82"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,227 +2240,227 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>4.2105263157894798E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="C33">
-        <v>4.1884816753926697E-2</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>4.19950399559108E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="E33">
-        <v>4.3859649122807001E-2</v>
+        <v>3.5714285714285698E-2</v>
       </c>
       <c r="F33">
         <v>1.6666666666666701E-2</v>
       </c>
       <c r="G33">
-        <v>8.4033613445377905E-3</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="H33">
-        <v>2.6086956521739101E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="I33">
-        <v>-2.5328373289244002E-2</v>
+        <v>6.1403508771930597E-3</v>
       </c>
       <c r="J33">
-        <v>-1.5908083434171699E-2</v>
+        <v>2.4561403508771999E-2</v>
       </c>
       <c r="K33">
-        <v>2.71929824561403E-2</v>
+        <v>1.9047619047619001E-2</v>
       </c>
       <c r="L33">
-        <v>-1.7683595177201299E-2</v>
+        <v>-1.8421052631578901E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>37</v>
+      <c r="A34" t="s">
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>6.25E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="C34">
-        <v>0.104166666666667</v>
+        <v>6.3829787234042507E-2</v>
       </c>
       <c r="D34">
-        <v>8.3333333333333301E-2</v>
+        <v>6.3493840985442307E-2</v>
       </c>
       <c r="E34">
-        <v>7.1428571428571397E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="F34">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="G34">
         <v>0</v>
       </c>
-      <c r="G34">
-        <v>7.5471698113207503E-2</v>
-      </c>
       <c r="H34">
-        <v>4.0816326530612297E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="I34">
-        <v>-8.3333333333333301E-2</v>
+        <v>-4.6827174318775602E-2</v>
       </c>
       <c r="J34">
-        <v>-4.2517006802720997E-2</v>
+        <v>-4.6252461675097403E-2</v>
       </c>
       <c r="K34">
-        <v>7.1428571428571397E-2</v>
+        <v>3.5057471264367798E-2</v>
       </c>
       <c r="L34">
-        <v>3.4655371582595199E-2</v>
+        <v>-1.72413793103449E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C35">
-        <v>2.0833333333333402E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="D35">
-        <v>2.6041666666666699E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="E35">
-        <v>5.0847457627118599E-2</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>6.5573770491803199E-2</v>
+        <v>7.5471698113207503E-2</v>
       </c>
       <c r="H35">
-        <v>3.3898305084745797E-2</v>
+        <v>4.0816326530612297E-2</v>
       </c>
       <c r="I35">
-        <v>-2.6041666666666699E-2</v>
+        <v>-8.3333333333333301E-2</v>
       </c>
       <c r="J35">
-        <v>7.8566384180791E-3</v>
+        <v>-4.2517006802720997E-2</v>
       </c>
       <c r="K35">
-        <v>5.0847457627118599E-2</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="L35">
-        <v>3.1675465407057499E-2</v>
+        <v>3.4655371582595199E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>0.104166666666667</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C36">
-        <v>0.125</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="D36">
-        <v>0.114583333333333</v>
+        <v>2.6041666666666699E-2</v>
       </c>
       <c r="E36">
-        <v>0.101694915254237</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F36">
-        <v>1.6666666666666701E-2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>6.5573770491803199E-2</v>
       </c>
       <c r="H36">
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="I36">
+        <v>-2.6041666666666699E-2</v>
+      </c>
+      <c r="J36">
+        <v>7.8566384180791E-3</v>
+      </c>
+      <c r="K36">
         <v>5.0847457627118599E-2</v>
       </c>
-      <c r="I36">
-        <v>-9.7916666666666596E-2</v>
-      </c>
-      <c r="J36">
-        <v>-6.3735875706214695E-2</v>
-      </c>
-      <c r="K36">
-        <v>8.5028248587570507E-2</v>
-      </c>
       <c r="L36">
-        <v>1.47263128646846E-2</v>
+        <v>3.1675465407057499E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>5.2083333333333398E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="C37">
-        <v>4.1666666666666602E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D37">
-        <v>4.6875E-2</v>
+        <v>0.114583333333333</v>
       </c>
       <c r="E37">
+        <v>0.101694915254237</v>
+      </c>
+      <c r="F37">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="G37">
+        <v>6.5573770491803199E-2</v>
+      </c>
+      <c r="H37">
         <v>5.0847457627118599E-2</v>
       </c>
-      <c r="F37">
-        <v>6.5573770491803199E-2</v>
-      </c>
-      <c r="G37">
-        <v>4.91803278688525E-2</v>
-      </c>
-      <c r="H37">
-        <v>1.6949152542372801E-2</v>
-      </c>
       <c r="I37">
-        <v>1.8698770491803199E-2</v>
+        <v>-9.7916666666666596E-2</v>
       </c>
       <c r="J37">
-        <v>-2.9925847457627199E-2</v>
+        <v>-6.3735875706214695E-2</v>
       </c>
       <c r="K37">
-        <v>-1.47263128646846E-2</v>
+        <v>8.5028248587570507E-2</v>
       </c>
       <c r="L37">
-        <v>3.2231175326479698E-2</v>
+        <v>1.47263128646846E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>0.104166666666667</v>
+        <v>5.2083333333333398E-2</v>
       </c>
       <c r="C38">
-        <v>0.125</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="D38">
-        <v>0.114583333333333</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="E38">
-        <v>0.40677966101694901</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F38">
-        <v>0.22950819672131201</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="G38">
-        <v>0.24590163934426201</v>
+        <v>4.91803278688525E-2</v>
       </c>
       <c r="H38">
-        <v>0.22413793103448301</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="I38">
-        <v>0.114924863387978</v>
+        <v>1.8698770491803199E-2</v>
       </c>
       <c r="J38">
-        <v>0.109554597701149</v>
+        <v>-2.9925847457627199E-2</v>
       </c>
       <c r="K38">
-        <v>0.177271464295638</v>
+        <v>-1.47263128646846E-2</v>
       </c>
       <c r="L38">
-        <v>2.1763708309779601E-2</v>
+        <v>3.2231175326479698E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2956,1322 +2959,1436 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>0.104166666666667</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C52">
-        <v>0.13541666666666699</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D52">
-        <v>0.119791666666667</v>
+        <v>3.1414473684210499E-2</v>
       </c>
       <c r="E52">
+        <v>0.12</v>
+      </c>
+      <c r="F52">
+        <v>5.1724137931034503E-2</v>
+      </c>
+      <c r="G52">
         <v>5.0847457627118599E-2</v>
       </c>
-      <c r="F52">
-        <v>8.3333333333333398E-2</v>
-      </c>
-      <c r="G52">
-        <v>9.8360655737704902E-2</v>
-      </c>
       <c r="H52">
-        <v>8.4745762711864403E-2</v>
+        <v>1.88679245283019E-2</v>
       </c>
       <c r="I52">
-        <v>-3.6458333333333301E-2</v>
+        <v>2.0309664246824E-2</v>
       </c>
       <c r="J52">
-        <v>-3.5045903954802199E-2</v>
+        <v>-1.2546549155908601E-2</v>
       </c>
       <c r="K52">
-        <v>-3.2485875706214799E-2</v>
+        <v>6.8275862068965507E-2</v>
       </c>
       <c r="L52">
-        <v>1.3614893025840499E-2</v>
+        <v>3.1979533098816702E-2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53">
+        <v>2.0833333333333402E-2</v>
+      </c>
+      <c r="C53">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="D53">
         <v>3.125E-2</v>
       </c>
-      <c r="C53">
-        <v>3.1578947368420998E-2</v>
-      </c>
-      <c r="D53">
-        <v>3.1414473684210499E-2</v>
-      </c>
       <c r="E53">
-        <v>0.12</v>
+        <v>8.9285714285714302E-2</v>
       </c>
       <c r="F53">
-        <v>5.1724137931034503E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="G53">
-        <v>5.0847457627118599E-2</v>
+        <v>4.91803278688525E-2</v>
       </c>
       <c r="H53">
-        <v>1.88679245283019E-2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>2.0309664246824E-2</v>
+        <v>1.5368852459016801E-3</v>
       </c>
       <c r="J53">
-        <v>-1.2546549155908601E-2</v>
+        <v>-3.125E-2</v>
       </c>
       <c r="K53">
-        <v>6.8275862068965507E-2</v>
+        <v>5.6498829039812598E-2</v>
       </c>
       <c r="L53">
-        <v>3.1979533098816702E-2</v>
+        <v>4.91803278688525E-2</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="C54">
-        <v>4.1666666666666602E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="D54">
-        <v>3.125E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="E54">
-        <v>8.9285714285714302E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="F54">
-        <v>3.2786885245901697E-2</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>4.91803278688525E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>1.5368852459016801E-3</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="J54">
-        <v>-3.125E-2</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="K54">
-        <v>5.6498829039812598E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="L54">
-        <v>4.91803278688525E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.104166666666667</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C55">
-        <v>5.2083333333333398E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="D55">
-        <v>7.8125E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="E55">
-        <v>0.25423728813559299</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.114754098360656</v>
+        <v>3.3333333333333298E-2</v>
       </c>
       <c r="G55">
-        <v>0.16393442622950799</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="H55">
-        <v>0.152542372881356</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="I55">
-        <v>3.6629098360655803E-2</v>
+        <v>1.7708333333333302E-2</v>
       </c>
       <c r="J55">
-        <v>7.4417372881355998E-2</v>
+        <v>1.6163793103448601E-3</v>
       </c>
       <c r="K55">
-        <v>0.13948318977493701</v>
+        <v>-3.3333333333333298E-2</v>
       </c>
       <c r="L55">
-        <v>1.1392053348152201E-2</v>
+        <v>-8.4793668739402395E-4</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>2.0833333333333402E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C56">
         <v>1.04166666666666E-2</v>
       </c>
       <c r="D56">
-        <v>1.5625E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="E56">
-        <v>1.6949152542372801E-2</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="G56">
-        <v>1.63934426229508E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>-1.5625E-2</v>
+        <v>5.9767759562842099E-3</v>
       </c>
       <c r="J56">
-        <v>-1.5625E-2</v>
+        <v>-1.04166666666666E-2</v>
       </c>
       <c r="K56">
-        <v>1.6949152542372801E-2</v>
+        <v>-1.63934426229508E-2</v>
       </c>
       <c r="L56">
-        <v>1.63934426229508E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>2.0833333333333402E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C57">
-        <v>1.04166666666666E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="D57">
-        <v>1.5625E-2</v>
+        <v>2.6041666666666598E-2</v>
       </c>
       <c r="E57">
+        <v>3.4482758620689599E-2</v>
+      </c>
+      <c r="F57">
         <v>0</v>
       </c>
-      <c r="F57">
-        <v>3.3333333333333298E-2</v>
-      </c>
       <c r="G57">
-        <v>1.63934426229508E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H57">
-        <v>1.72413793103449E-2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1.7708333333333302E-2</v>
+        <v>-2.6041666666666598E-2</v>
       </c>
       <c r="J57">
-        <v>1.6163793103448601E-3</v>
+        <v>-2.6041666666666598E-2</v>
       </c>
       <c r="K57">
-        <v>-3.3333333333333298E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="L57">
-        <v>-8.4793668739402395E-4</v>
+        <v>3.2786885245901697E-2</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>1.04166666666666E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C58">
-        <v>1.04166666666666E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D58">
-        <v>1.04166666666666E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="F58">
-        <v>1.63934426229508E-2</v>
+        <v>4.91803278688525E-2</v>
       </c>
       <c r="G58">
-        <v>3.2786885245901697E-2</v>
+        <v>9.8360655737704902E-2</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="I58">
-        <v>5.9767759562842099E-3</v>
+        <v>2.3053278688525101E-3</v>
       </c>
       <c r="J58">
-        <v>-1.04166666666666E-2</v>
+        <v>3.9331896551724102E-2</v>
       </c>
       <c r="K58">
-        <v>-1.63934426229508E-2</v>
+        <v>5.2514587385384698E-2</v>
       </c>
       <c r="L58">
-        <v>3.2786885245901697E-2</v>
+        <v>1.21537591859808E-2</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>1.04166666666666E-2</v>
       </c>
       <c r="C59">
-        <v>4.1666666666666602E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D59">
-        <v>2.6041666666666598E-2</v>
+        <v>1.5734649122807001E-2</v>
       </c>
       <c r="E59">
-        <v>3.4482758620689599E-2</v>
+        <v>0.15517241379310301</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="G59">
-        <v>3.2786885245901697E-2</v>
+        <v>0.15</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="I59">
-        <v>-2.6041666666666598E-2</v>
+        <v>0.11759868421052599</v>
       </c>
       <c r="J59">
-        <v>-2.6041666666666598E-2</v>
+        <v>3.7836779448621599E-2</v>
       </c>
       <c r="K59">
-        <v>3.4482758620689599E-2</v>
+        <v>2.1839080459770101E-2</v>
       </c>
       <c r="L59">
-        <v>3.2786885245901697E-2</v>
+        <v>9.6428571428571405E-2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>6.25E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D60">
-        <v>4.6875E-2</v>
+        <v>5.2631578947368602E-3</v>
       </c>
       <c r="E60">
-        <v>0.101694915254237</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>4.91803278688525E-2</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>9.8360655737704902E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="H60">
-        <v>8.6206896551724102E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="I60">
-        <v>2.3053278688525101E-3</v>
+        <v>-5.2631578947368602E-3</v>
       </c>
       <c r="J60">
-        <v>3.9331896551724102E-2</v>
+        <v>2.92196007259528E-2</v>
       </c>
       <c r="K60">
-        <v>5.2514587385384698E-2</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1.21537591859808E-2</v>
+        <v>1.6364699006429E-2</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>1.04166666666666E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C61">
-        <v>2.1052631578947299E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D61">
-        <v>1.5734649122807001E-2</v>
+        <v>2.08881578947369E-2</v>
       </c>
       <c r="E61">
-        <v>0.15517241379310301</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="F61">
-        <v>0.133333333333333</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="G61">
-        <v>0.15</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="H61">
-        <v>5.3571428571428603E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="I61">
-        <v>0.11759868421052599</v>
+        <v>-4.22149122807014E-3</v>
       </c>
       <c r="J61">
-        <v>3.7836779448621599E-2</v>
+        <v>1.3010147190008901E-2</v>
       </c>
       <c r="K61">
-        <v>2.1839080459770101E-2</v>
+        <v>3.5964912280701797E-2</v>
       </c>
       <c r="L61">
-        <v>9.6428571428571405E-2</v>
+        <v>-1.72316384180791E-2</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>5.2083333333333398E-2</v>
       </c>
       <c r="C62">
-        <v>1.05263157894737E-2</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="D62">
-        <v>5.2631578947368602E-3</v>
+        <v>5.2357456140350901E-2</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>8.6206896551724102E-2</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="G62">
-        <v>5.0847457627118599E-2</v>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="H62">
-        <v>3.4482758620689599E-2</v>
+        <v>8.9285714285714302E-2</v>
       </c>
       <c r="I62">
-        <v>-5.2631578947368602E-3</v>
+        <v>-3.54083035979781E-2</v>
       </c>
       <c r="J62">
-        <v>2.92196007259528E-2</v>
+        <v>3.69282581453634E-2</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>6.9257744009351294E-2</v>
       </c>
       <c r="L62">
-        <v>1.6364699006429E-2</v>
+        <v>-4.5399515738499003E-3</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>3.125E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C63">
-        <v>1.05263157894737E-2</v>
+        <v>8.42105263157895E-2</v>
       </c>
       <c r="D63">
-        <v>2.08881578947369E-2</v>
+        <v>5.25219298245614E-2</v>
       </c>
       <c r="E63">
-        <v>5.2631578947368501E-2</v>
+        <v>0.20689655172413801</v>
       </c>
       <c r="F63">
-        <v>1.6666666666666701E-2</v>
+        <v>0.18333333333333299</v>
       </c>
       <c r="G63">
-        <v>1.6666666666666701E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H63">
-        <v>3.3898305084745797E-2</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>-4.22149122807014E-3</v>
+        <v>0.13081140350877199</v>
       </c>
       <c r="J63">
-        <v>1.3010147190008901E-2</v>
+        <v>-5.25219298245614E-2</v>
       </c>
       <c r="K63">
-        <v>3.5964912280701797E-2</v>
+        <v>2.3563218390804601E-2</v>
       </c>
       <c r="L63">
-        <v>-1.72316384180791E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>5.2083333333333398E-2</v>
+        <v>7.2916666666666602E-2</v>
       </c>
       <c r="C64">
-        <v>5.2631578947368501E-2</v>
+        <v>9.4736842105263105E-2</v>
       </c>
       <c r="D64">
-        <v>5.2357456140350901E-2</v>
+        <v>8.3826754385964902E-2</v>
       </c>
       <c r="E64">
-        <v>8.6206896551724102E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
       <c r="F64">
-        <v>1.6949152542372801E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="G64">
-        <v>8.4745762711864403E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H64">
-        <v>8.9285714285714302E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="I64">
-        <v>-3.54083035979781E-2</v>
+        <v>-4.9928449301219098E-2</v>
       </c>
       <c r="J64">
-        <v>3.69282581453634E-2</v>
+        <v>-6.6585375075619999E-2</v>
       </c>
       <c r="K64">
-        <v>6.9257744009351294E-2</v>
+        <v>1.7825832846288699E-2</v>
       </c>
       <c r="L64">
-        <v>-4.5399515738499003E-3</v>
+        <v>5.0555230859146698E-2</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>2.0833333333333402E-2</v>
+        <v>1.04166666666666E-2</v>
       </c>
       <c r="C65">
-        <v>8.42105263157895E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D65">
-        <v>5.25219298245614E-2</v>
+        <v>1.5734649122807001E-2</v>
       </c>
       <c r="E65">
-        <v>0.20689655172413801</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="F65">
-        <v>0.18333333333333299</v>
+        <v>1.75438596491229E-2</v>
       </c>
       <c r="G65">
-        <v>3.2786885245901697E-2</v>
+        <v>1.63934426229508E-2</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="I65">
-        <v>0.13081140350877199</v>
+        <v>1.8092105263158901E-3</v>
       </c>
       <c r="J65">
-        <v>-5.25219298245614E-2</v>
+        <v>1.2145034195658599E-3</v>
       </c>
       <c r="K65">
-        <v>2.3563218390804601E-2</v>
+        <v>-3.02480338778E-4</v>
       </c>
       <c r="L65">
-        <v>3.2786885245901697E-2</v>
+        <v>-5.55709919421998E-4</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66">
         <v>7.2916666666666602E-2</v>
       </c>
       <c r="C66">
-        <v>9.4736842105263105E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="D66">
-        <v>8.3826754385964902E-2</v>
+        <v>6.8037280701754396E-2</v>
       </c>
       <c r="E66">
-        <v>5.1724137931034503E-2</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="F66">
-        <v>3.3898305084745797E-2</v>
+        <v>0.12068965517241401</v>
       </c>
       <c r="G66">
-        <v>6.7796610169491595E-2</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="H66">
-        <v>1.72413793103449E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="I66">
-        <v>-4.9928449301219098E-2</v>
+        <v>5.2652374470659499E-2</v>
       </c>
       <c r="J66">
-        <v>-6.6585375075619999E-2</v>
+        <v>-3.2949561403508701E-2</v>
       </c>
       <c r="K66">
-        <v>1.7825832846288699E-2</v>
+        <v>4.00246305418719E-2</v>
       </c>
       <c r="L66">
-        <v>5.0555230859146698E-2</v>
+        <v>3.6340852130325799E-2</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>1.04166666666666E-2</v>
       </c>
       <c r="C67">
-        <v>2.1052631578947299E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D67">
-        <v>1.5734649122807001E-2</v>
+        <v>1.0471491228070199E-2</v>
       </c>
       <c r="E67">
-        <v>1.72413793103449E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F67">
-        <v>1.75438596491229E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="G67">
-        <v>1.63934426229508E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H67">
-        <v>1.6949152542372801E-2</v>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="I67">
-        <v>1.8092105263158901E-3</v>
+        <v>2.2315394017831499E-2</v>
       </c>
       <c r="J67">
-        <v>1.2145034195658599E-3</v>
+        <v>4.3099937343358402E-2</v>
       </c>
       <c r="K67">
-        <v>-3.02480338778E-4</v>
+        <v>1.8060572381216899E-2</v>
       </c>
       <c r="L67">
-        <v>-5.55709919421998E-4</v>
+        <v>1.4225181598063E-2</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>7.2916666666666602E-2</v>
+        <v>4.3478260869565202E-2</v>
       </c>
       <c r="C68">
-        <v>6.3157894736842093E-2</v>
+        <v>0.21276595744680801</v>
       </c>
       <c r="D68">
-        <v>6.8037280701754396E-2</v>
+        <v>0.128122109158187</v>
       </c>
       <c r="E68">
-        <v>0.160714285714286</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="F68">
-        <v>0.12068965517241401</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="G68">
-        <v>7.1428571428571397E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="H68">
-        <v>3.5087719298245598E-2</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="I68">
-        <v>5.2652374470659499E-2</v>
+        <v>5.8318568807914799E-2</v>
       </c>
       <c r="J68">
-        <v>-3.2949561403508701E-2</v>
+        <v>-2.09792520153297E-2</v>
       </c>
       <c r="K68">
-        <v>4.00246305418719E-2</v>
+        <v>-3.38983050847457E-2</v>
       </c>
       <c r="L68">
-        <v>3.6340852130325799E-2</v>
+        <v>-4.0476190476190402E-2</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>1.04166666666666E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C69">
-        <v>1.05263157894737E-2</v>
+        <v>2.1052631578947299E-2</v>
       </c>
       <c r="D69">
-        <v>1.0471491228070199E-2</v>
+        <v>2.61513157894737E-2</v>
       </c>
       <c r="E69">
-        <v>5.0847457627118599E-2</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="F69">
-        <v>3.2786885245901697E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="G69">
-        <v>6.7796610169491595E-2</v>
+        <v>6.5573770491803199E-2</v>
       </c>
       <c r="H69">
-        <v>5.3571428571428603E-2</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="I69">
-        <v>2.2315394017831499E-2</v>
+        <v>-8.2941729323307602E-3</v>
       </c>
       <c r="J69">
-        <v>4.3099937343358402E-2</v>
+        <v>-7.9694976076554701E-3</v>
       </c>
       <c r="K69">
-        <v>1.8060572381216899E-2</v>
+        <v>3.2467532467528299E-4</v>
       </c>
       <c r="L69">
-        <v>1.4225181598063E-2</v>
+        <v>4.7391952309985101E-2</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>4.3478260869565202E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="C70">
-        <v>0.21276595744680801</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D70">
-        <v>0.128122109158187</v>
+        <v>3.66228070175438E-2</v>
       </c>
       <c r="E70">
-        <v>0.152542372881356</v>
+        <v>8.77192982456141E-2</v>
       </c>
       <c r="F70">
-        <v>0.186440677966102</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="G70">
-        <v>6.6666666666666693E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H70">
-        <v>0.107142857142857</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="I70">
-        <v>5.8318568807914799E-2</v>
+        <v>-2.72450193279805E-3</v>
       </c>
       <c r="J70">
-        <v>-2.09792520153297E-2</v>
+        <v>1.6008771929824601E-2</v>
       </c>
       <c r="K70">
-        <v>-3.38983050847457E-2</v>
+        <v>5.3820993160868302E-2</v>
       </c>
       <c r="L70">
-        <v>-4.0476190476190402E-2</v>
+        <v>-1.9844693701466801E-2</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>3.125E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="C71">
         <v>2.1052631578947299E-2</v>
       </c>
       <c r="D71">
-        <v>2.61513157894737E-2</v>
+        <v>1.5789473684210499E-2</v>
       </c>
       <c r="E71">
-        <v>1.8181818181818198E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="F71">
-        <v>1.7857142857142901E-2</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>6.5573770491803199E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="H71">
-        <v>1.8181818181818198E-2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>-8.2941729323307602E-3</v>
+        <v>-1.5789473684210499E-2</v>
       </c>
       <c r="J71">
-        <v>-7.9694976076554701E-3</v>
+        <v>-1.5789473684210499E-2</v>
       </c>
       <c r="K71">
-        <v>3.2467532467528299E-4</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="L71">
-        <v>4.7391952309985101E-2</v>
+        <v>3.3898305084745797E-2</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>4.1666666666666602E-2</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>3.1578947368420998E-2</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>3.66228070175438E-2</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>8.77192982456141E-2</v>
+        <v>5.3571428571428603E-2</v>
       </c>
       <c r="F72">
-        <v>3.3898305084745797E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="G72">
-        <v>3.2786885245901697E-2</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="H72">
-        <v>5.2631578947368501E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="I72">
-        <v>-2.72450193279805E-3</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="J72">
-        <v>1.6008771929824601E-2</v>
+        <v>1.72413793103449E-2</v>
       </c>
       <c r="K72">
-        <v>5.3820993160868302E-2</v>
+        <v>3.6904761904761899E-2</v>
       </c>
       <c r="L72">
-        <v>-1.9844693701466801E-2</v>
+        <v>-5.74712643678144E-4</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>1.05263157894737E-2</v>
+        <v>4.1666666666666602E-2</v>
       </c>
       <c r="C73">
-        <v>2.1052631578947299E-2</v>
+        <v>6.3157894736842093E-2</v>
       </c>
       <c r="D73">
-        <v>1.5789473684210499E-2</v>
+        <v>5.2412280701754403E-2</v>
       </c>
       <c r="E73">
-        <v>1.72413793103449E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>3.3898305084745797E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1.8181818181818198E-2</v>
       </c>
       <c r="I73">
-        <v>-1.5789473684210499E-2</v>
+        <v>-5.2412280701754403E-2</v>
       </c>
       <c r="J73">
-        <v>-1.5789473684210499E-2</v>
+        <v>-3.4230462519936201E-2</v>
       </c>
       <c r="K73">
-        <v>1.72413793103449E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="L73">
-        <v>3.3898305084745797E-2</v>
+        <v>4.96147919876734E-2</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>2.08881578947369E-2</v>
       </c>
       <c r="E74">
-        <v>5.3571428571428603E-2</v>
+        <v>5.0847457627118599E-2</v>
       </c>
       <c r="F74">
-        <v>1.6666666666666701E-2</v>
+        <v>3.5087719298245598E-2</v>
       </c>
       <c r="G74">
-        <v>1.6666666666666701E-2</v>
+        <v>3.2786885245901697E-2</v>
       </c>
       <c r="H74">
-        <v>1.72413793103449E-2</v>
+        <v>5.2631578947368501E-2</v>
       </c>
       <c r="I74">
-        <v>1.6666666666666701E-2</v>
+        <v>1.41995614035088E-2</v>
       </c>
       <c r="J74">
-        <v>1.72413793103449E-2</v>
+        <v>3.1743421052631601E-2</v>
       </c>
       <c r="K74">
-        <v>3.6904761904761899E-2</v>
+        <v>1.5759738328873001E-2</v>
       </c>
       <c r="L74">
-        <v>-5.74712643678144E-4</v>
+        <v>-1.9844693701466801E-2</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>4.1666666666666602E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C75">
-        <v>6.3157894736842093E-2</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>5.2412280701754403E-2</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="E75">
-        <v>5.0847457627118599E-2</v>
+        <v>1.6949152542372801E-2</v>
       </c>
       <c r="F75">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="G75">
+        <v>1.7857142857142901E-2</v>
+      </c>
+      <c r="H75">
         <v>0</v>
       </c>
-      <c r="G75">
-        <v>6.7796610169491595E-2</v>
-      </c>
-      <c r="H75">
-        <v>1.8181818181818198E-2</v>
-      </c>
       <c r="I75">
-        <v>-5.2412280701754403E-2</v>
+        <v>6.2500000000000298E-3</v>
       </c>
       <c r="J75">
-        <v>-3.4230462519936201E-2</v>
+        <v>-1.0416666666666701E-2</v>
       </c>
       <c r="K75">
-        <v>5.0847457627118599E-2</v>
+        <v>2.8248587570611799E-4</v>
       </c>
       <c r="L75">
-        <v>4.96147919876734E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>3.125E-2</v>
+        <v>2.0833333333333402E-2</v>
       </c>
       <c r="C76">
         <v>1.05263157894737E-2</v>
       </c>
       <c r="D76">
-        <v>2.08881578947369E-2</v>
+        <v>1.5679824561403499E-2</v>
       </c>
       <c r="E76">
-        <v>5.0847457627118599E-2</v>
+        <v>0</v>
       </c>
       <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
         <v>3.5087719298245598E-2</v>
       </c>
-      <c r="G76">
-        <v>3.2786885245901697E-2</v>
-      </c>
       <c r="H76">
-        <v>5.2631578947368501E-2</v>
+        <v>1.7857142857142901E-2</v>
       </c>
       <c r="I76">
-        <v>1.41995614035088E-2</v>
+        <v>-1.5679824561403499E-2</v>
       </c>
       <c r="J76">
-        <v>3.1743421052631601E-2</v>
+        <v>2.1773182957393598E-3</v>
       </c>
       <c r="K76">
-        <v>1.5759738328873001E-2</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>-1.9844693701466801E-2</v>
+        <v>1.72305764411027E-2</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B77">
-        <v>2.0833333333333402E-2</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>3.1578947368420998E-2</v>
       </c>
       <c r="D77">
-        <v>1.0416666666666701E-2</v>
+        <v>1.5789473684210499E-2</v>
       </c>
       <c r="E77">
-        <v>1.6949152542372801E-2</v>
+        <v>3.4482758620689599E-2</v>
       </c>
       <c r="F77">
-        <v>1.6666666666666701E-2</v>
+        <v>6.7796610169491595E-2</v>
       </c>
       <c r="G77">
+        <v>8.6206896551724102E-2</v>
+      </c>
+      <c r="H77">
         <v>1.7857142857142901E-2</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
       <c r="I77">
-        <v>6.2500000000000298E-3</v>
+        <v>5.2007136485280998E-2</v>
       </c>
       <c r="J77">
-        <v>-1.0416666666666701E-2</v>
+        <v>2.0676691729323801E-3</v>
       </c>
       <c r="K77">
-        <v>2.8248587570611799E-4</v>
+        <v>-3.3313851548802002E-2</v>
       </c>
       <c r="L77">
-        <v>1.7857142857142901E-2</v>
+        <v>6.8349753694581197E-2</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B78">
-        <v>2.0833333333333402E-2</v>
+        <v>1.05263157894737E-2</v>
       </c>
       <c r="C78">
+        <v>3.1578947368420998E-2</v>
+      </c>
+      <c r="D78">
+        <v>2.1052631578947399E-2</v>
+      </c>
+      <c r="E78">
+        <v>5.1724137931034503E-2</v>
+      </c>
+      <c r="F78">
+        <v>3.5714285714285698E-2</v>
+      </c>
+      <c r="G78">
+        <v>8.1967213114754106E-2</v>
+      </c>
+      <c r="H78">
+        <v>5.1724137931034503E-2</v>
+      </c>
+      <c r="I78">
+        <v>1.4661654135338299E-2</v>
+      </c>
+      <c r="J78">
+        <v>3.06715063520871E-2</v>
+      </c>
+      <c r="K78">
+        <v>1.6009852216748801E-2</v>
+      </c>
+      <c r="L78">
+        <v>3.02430751837196E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>4.2105263157894798E-2</v>
+      </c>
+      <c r="C79">
+        <v>3.1578947368420998E-2</v>
+      </c>
+      <c r="D79">
+        <v>3.6842105263157898E-2</v>
+      </c>
+      <c r="E79">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="F79">
+        <v>5.1724137931034503E-2</v>
+      </c>
+      <c r="G79">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="H79">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="I79">
+        <v>1.4882032667876599E-2</v>
+      </c>
+      <c r="J79">
+        <v>-1.98929527207851E-2</v>
+      </c>
+      <c r="K79">
+        <v>1.72413793103449E-2</v>
+      </c>
+      <c r="L79">
+        <v>4.9717514124293802E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>91</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
         <v>1.05263157894737E-2</v>
       </c>
-      <c r="D78">
-        <v>1.5679824561403499E-2</v>
-      </c>
-      <c r="E78">
+      <c r="D80">
+        <v>5.2631578947368602E-3</v>
+      </c>
+      <c r="E80">
+        <v>3.4482758620689599E-2</v>
+      </c>
+      <c r="F80">
         <v>0</v>
       </c>
-      <c r="F78">
+      <c r="G80">
+        <v>1.63934426229508E-2</v>
+      </c>
+      <c r="H80">
+        <v>1.75438596491229E-2</v>
+      </c>
+      <c r="I80">
+        <v>-5.2631578947368602E-3</v>
+      </c>
+      <c r="J80">
+        <v>1.2280701754386E-2</v>
+      </c>
+      <c r="K80">
+        <v>3.4482758620689599E-2</v>
+      </c>
+      <c r="L80">
+        <v>-1.15041702617202E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>92</v>
+      </c>
+      <c r="B81">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C81">
+        <v>3.1578947368420998E-2</v>
+      </c>
+      <c r="D81">
+        <v>4.7039473684210499E-2</v>
+      </c>
+      <c r="E81">
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="F81">
+        <v>1.6666666666666701E-2</v>
+      </c>
+      <c r="G81">
+        <v>5.1724137931034503E-2</v>
+      </c>
+      <c r="H81">
         <v>0</v>
       </c>
-      <c r="G78">
-        <v>3.5087719298245598E-2</v>
-      </c>
-      <c r="H78">
-        <v>1.7857142857142901E-2</v>
-      </c>
-      <c r="I78">
-        <v>-1.5679824561403499E-2</v>
-      </c>
-      <c r="J78">
-        <v>2.1773182957393598E-3</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>1.72305764411027E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81">
-        <f>AVERAGE(B2:B78)</f>
-        <v>3.0266745233551124E-2</v>
-      </c>
-      <c r="C81">
-        <f>AVERAGE(C2:C78)</f>
-        <v>4.7909980646588114E-2</v>
-      </c>
-      <c r="D81">
-        <f>AVERAGE(D2:D78)</f>
-        <v>3.9088362940069607E-2</v>
-      </c>
-      <c r="E81">
-        <f>AVERAGE(E2:E78)</f>
-        <v>7.2773992559725192E-2</v>
-      </c>
-      <c r="F81">
-        <f>AVERAGE(F2:F78)</f>
-        <v>4.2876879673783182E-2</v>
-      </c>
-      <c r="G81">
-        <f>AVERAGE(G2:G78)</f>
-        <v>6.0763343522993014E-2</v>
-      </c>
-      <c r="H81">
-        <f>AVERAGE(H2:H78)</f>
-        <v>3.8651782145704146E-2</v>
-      </c>
       <c r="I81">
-        <f>AVERAGE(I2:I78)</f>
-        <v>3.7885167337135647E-3</v>
+        <v>-3.0372807017543801E-2</v>
       </c>
       <c r="J81">
-        <f>AVERAGE(J2:J78)</f>
-        <v>-4.365807943654559E-4</v>
+        <v>-4.7039473684210499E-2</v>
       </c>
       <c r="K81">
-        <f>AVERAGE(K2:K78)</f>
-        <v>2.9897112885942E-2</v>
+        <v>1.72316384180791E-2</v>
       </c>
       <c r="L81">
-        <f>AVERAGE(L2:L78)</f>
-        <v>2.2111561377288882E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82">
-        <f>STDEV(B2:B78)</f>
-        <v>2.6969948478542463E-2</v>
-      </c>
-      <c r="C82">
-        <f>STDEV(C2:C78)</f>
-        <v>4.221389458914674E-2</v>
-      </c>
-      <c r="D82">
-        <f>STDEV(D2:D78)</f>
-        <v>3.0384807547402609E-2</v>
-      </c>
-      <c r="E82">
-        <f>STDEV(E2:E78)</f>
-        <v>7.4525657650046484E-2</v>
-      </c>
-      <c r="F82">
-        <f>STDEV(F2:F78)</f>
-        <v>5.6813955361128723E-2</v>
-      </c>
-      <c r="G82">
-        <f>STDEV(G2:G78)</f>
-        <v>5.5624830690462437E-2</v>
-      </c>
-      <c r="H82">
-        <f>STDEV(H2:H78)</f>
-        <v>5.2944693537757846E-2</v>
-      </c>
-      <c r="I82">
-        <f>STDEV(I2:I78)</f>
-        <v>5.1610501458568589E-2</v>
-      </c>
-      <c r="J82">
-        <f>STDEV(J2:J78)</f>
-        <v>5.0498147302403533E-2</v>
-      </c>
-      <c r="K82">
-        <f>STDEV(K2:K78)</f>
-        <v>4.8100049543450589E-2</v>
-      </c>
-      <c r="L82">
-        <f>STDEV(L2:L78)</f>
-        <v>3.4499341106025636E-2</v>
+        <v>5.1724137931034503E-2</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <f>B82/(SQRT(59))</f>
-        <v>3.5111882216303709E-3</v>
+        <f>AVERAGE(B2:B81)</f>
+        <v>2.7190952813608726E-2</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83:L83" si="0">C82/(SQRT(59))</f>
-        <v>5.4957809648203074E-3</v>
+        <f t="shared" ref="C83:L83" si="0">AVERAGE(C2:C81)</f>
+        <v>4.4191944819131981E-2</v>
       </c>
       <c r="D83">
         <f t="shared" si="0"/>
-        <v>3.9557650049582638E-3</v>
+        <v>3.5691448816370347E-2</v>
       </c>
       <c r="E83">
         <f t="shared" si="0"/>
-        <v>9.7024142095892569E-3</v>
+        <v>6.4485815904252883E-2</v>
       </c>
       <c r="F83">
         <f t="shared" si="0"/>
-        <v>7.3965469769784889E-3</v>
+        <v>3.8281155920176863E-2</v>
       </c>
       <c r="G83">
         <f t="shared" si="0"/>
-        <v>7.2417361310840138E-3</v>
+        <v>5.6022529902103081E-2</v>
       </c>
       <c r="H83">
         <f t="shared" si="0"/>
-        <v>6.8928119938941575E-3</v>
+        <v>3.3063469920725501E-2</v>
       </c>
       <c r="I83">
         <f t="shared" si="0"/>
-        <v>6.7191149800652668E-3</v>
+        <v>2.5897071038065095E-3</v>
       </c>
       <c r="J83">
         <f t="shared" si="0"/>
-        <v>6.5742988038491445E-3</v>
+        <v>-2.6279788956448339E-3</v>
       </c>
       <c r="K83">
         <f t="shared" si="0"/>
-        <v>6.2620930681855065E-3</v>
+        <v>2.6204659984076017E-2</v>
       </c>
       <c r="L83">
         <f t="shared" si="0"/>
-        <v>4.4914316481494496E-3</v>
+        <v>2.295905998137758E-2</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>17</v>
+      <c r="A84" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B84">
-        <f>B83*1.96</f>
-        <v>6.881928914395527E-3</v>
+        <f>STDEV(B2:B81)</f>
+        <v>2.3212788027946123E-2</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:L84" si="1">C83*1.96</f>
-        <v>1.0771730691047803E-2</v>
+        <f t="shared" ref="C84:L84" si="1">STDEV(C2:C81)</f>
+        <v>3.9886900504168162E-2</v>
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
-        <v>7.7532994097181968E-3</v>
+        <v>2.7325971022752974E-2</v>
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>1.9016731850794943E-2</v>
+        <v>5.9270505875388201E-2</v>
       </c>
       <c r="F84">
         <f t="shared" si="1"/>
-        <v>1.4497232074877839E-2</v>
+        <v>5.1058879512771257E-2</v>
       </c>
       <c r="G84">
         <f t="shared" si="1"/>
-        <v>1.4193802816924667E-2</v>
+        <v>4.9439717576702805E-2</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.3509911508032548E-2</v>
+        <v>4.561347751385704E-2</v>
       </c>
       <c r="I84">
         <f t="shared" si="1"/>
-        <v>1.3169465360927923E-2</v>
+        <v>4.9402416656251343E-2</v>
       </c>
       <c r="J84">
         <f t="shared" si="1"/>
-        <v>1.2885625655544323E-2</v>
+        <v>4.7825148613895328E-2</v>
       </c>
       <c r="K84">
         <f t="shared" si="1"/>
-        <v>1.2273702413643593E-2</v>
+        <v>4.2365372935131068E-2</v>
       </c>
       <c r="L84">
         <f t="shared" si="1"/>
-        <v>8.8032060303729204E-3</v>
+        <v>3.4896403537994912E-2</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85">
-        <f>B81+B84</f>
-        <v>3.7148674147946648E-2</v>
+        <f>B84/(SQRT(80))</f>
+        <v>2.5952685988890408E-3</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85:L85" si="2">C81+C84</f>
-        <v>5.8681711337635917E-2</v>
+        <f t="shared" ref="C85:L85" si="2">C84/(SQRT(80))</f>
+        <v>4.4594910469545317E-3</v>
       </c>
       <c r="D85">
         <f t="shared" si="2"/>
-        <v>4.6841662349787802E-2</v>
+        <v>3.0551364379032549E-3</v>
       </c>
       <c r="E85">
         <f t="shared" si="2"/>
-        <v>9.1790724410520136E-2</v>
+        <v>6.6266440099084344E-3</v>
       </c>
       <c r="F85">
         <f t="shared" si="2"/>
-        <v>5.7374111748661021E-2</v>
+        <v>5.7085562722763933E-3</v>
       </c>
       <c r="G85">
         <f t="shared" si="2"/>
-        <v>7.495714633991768E-2</v>
+        <v>5.5275284644949315E-3</v>
       </c>
       <c r="H85">
         <f t="shared" si="2"/>
-        <v>5.2161693653736692E-2</v>
+        <v>5.0997418205571219E-3</v>
       </c>
       <c r="I85">
         <f t="shared" si="2"/>
-        <v>1.6957982094641489E-2</v>
+        <v>5.523358094807293E-3</v>
       </c>
       <c r="J85">
         <f t="shared" si="2"/>
-        <v>1.2449044861178867E-2</v>
+        <v>5.3470141667349893E-3</v>
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>4.2170815299585593E-2</v>
+        <v>4.7365926887541427E-3</v>
       </c>
       <c r="L85">
         <f t="shared" si="2"/>
-        <v>3.0914767407661803E-2</v>
+        <v>3.9015365240610391E-3</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>16</v>
+      <c r="A86" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B86">
-        <f>B81-B84</f>
-        <v>2.3384816319155597E-2</v>
+        <f>B85*1.96</f>
+        <v>5.0867264538225201E-3</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86:L86" si="3">C81-C84</f>
-        <v>3.7138249955540312E-2</v>
+        <f t="shared" ref="C86:L86" si="3">C85*1.96</f>
+        <v>8.7406024520308816E-3</v>
       </c>
       <c r="D86">
         <f t="shared" si="3"/>
-        <v>3.1335063530351412E-2</v>
+        <v>5.9880674182903795E-3</v>
       </c>
       <c r="E86">
         <f t="shared" si="3"/>
-        <v>5.3757260708930249E-2</v>
+        <v>1.2988222259420531E-2</v>
       </c>
       <c r="F86">
         <f t="shared" si="3"/>
-        <v>2.8379647598905343E-2</v>
+        <v>1.1188770293661731E-2</v>
       </c>
       <c r="G86">
         <f t="shared" si="3"/>
-        <v>4.6569540706068349E-2</v>
+        <v>1.0833955790410065E-2</v>
       </c>
       <c r="H86">
         <f t="shared" si="3"/>
-        <v>2.51418706376716E-2</v>
+        <v>9.9954939682919582E-3</v>
       </c>
       <c r="I86">
         <f t="shared" si="3"/>
-        <v>-9.3809486272143586E-3</v>
+        <v>1.0825781865822294E-2</v>
       </c>
       <c r="J86">
         <f t="shared" si="3"/>
-        <v>-1.3322206449909779E-2</v>
+        <v>1.0480147766800578E-2</v>
       </c>
       <c r="K86">
         <f t="shared" si="3"/>
-        <v>1.7623410472298408E-2</v>
+        <v>9.2837216699581202E-3</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>1.3308355346915962E-2</v>
+        <v>7.6470115871596364E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <f>B83+B86</f>
+        <v>3.2277679267431247E-2</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ref="C87:L87" si="4">C83+C86</f>
+        <v>5.2932547271162866E-2</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>4.1679516234660728E-2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>7.7474038163673417E-2</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>4.9469926213838597E-2</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>6.6856485692513151E-2</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="4"/>
+        <v>4.3058963889017463E-2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="4"/>
+        <v>1.3415488969628804E-2</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="4"/>
+        <v>7.8521688711557444E-3</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>3.5488381654034139E-2</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="4"/>
+        <v>3.0606071568537216E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <f>B83-B86</f>
+        <v>2.2104226359786205E-2</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ref="C88:L88" si="5">C83-C86</f>
+        <v>3.5451342367101096E-2</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="5"/>
+        <v>2.9703381398079966E-2</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>5.1497593644832348E-2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>2.7092385626515132E-2</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>4.5188574111693018E-2</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>2.3067975952433543E-2</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>-8.2360747620157833E-3</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="5"/>
+        <v>-1.3108126662445412E-2</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>1.6920938314117895E-2</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="5"/>
+        <v>1.5312048394217945E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4282,11 +4399,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83:L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5524,227 +5641,227 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>765.642857142857</v>
+        <v>744.69892473118296</v>
       </c>
       <c r="C33">
-        <v>815.46994535519104</v>
+        <v>755.01052631578898</v>
       </c>
       <c r="D33">
-        <v>790.55640124902402</v>
+        <v>749.85472552348597</v>
       </c>
       <c r="E33">
-        <v>1534.78899082569</v>
+        <v>1499.7777777777801</v>
       </c>
       <c r="F33">
-        <v>1537.5847457627101</v>
+        <v>1510.28813559322</v>
       </c>
       <c r="G33">
-        <v>1634.71186440678</v>
+        <v>1603.2033898305101</v>
       </c>
       <c r="H33">
-        <v>1353.80357142857</v>
+        <v>1438.1272727272701</v>
       </c>
       <c r="I33">
-        <v>747.02834451368801</v>
+        <v>760.43341006973401</v>
       </c>
       <c r="J33">
-        <v>563.24717017954697</v>
+        <v>688.27254720378698</v>
       </c>
       <c r="K33">
-        <v>-2.7957549370239598</v>
+        <v>-10.5103578154426</v>
       </c>
       <c r="L33">
-        <v>280.90829297820801</v>
+        <v>165.07611710323599</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>37</v>
+      <c r="A34" t="s">
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>868.8</v>
+        <v>787.52808988764002</v>
       </c>
       <c r="C34">
-        <v>1070.20930232558</v>
+        <v>880.73863636363603</v>
       </c>
       <c r="D34">
-        <v>969.50465116279099</v>
+        <v>834.13336312563797</v>
       </c>
       <c r="E34">
-        <v>1664.8461538461499</v>
+        <v>1569.1636363636401</v>
       </c>
       <c r="F34">
-        <v>1880.5660377358499</v>
+        <v>1564.8813559322</v>
       </c>
       <c r="G34">
-        <v>1877.8367346938801</v>
+        <v>1666.2203389830499</v>
       </c>
       <c r="H34">
-        <v>1563.04255319149</v>
+        <v>1272.4385964912301</v>
       </c>
       <c r="I34">
-        <v>911.06138657305803</v>
+        <v>730.74799280656498</v>
       </c>
       <c r="J34">
-        <v>593.53790202869902</v>
+        <v>438.30523336559003</v>
       </c>
       <c r="K34">
-        <v>-215.71988388969501</v>
+        <v>4.2822804314330396</v>
       </c>
       <c r="L34">
-        <v>314.79418150238803</v>
+        <v>393.78174249182302</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>550.34408602150495</v>
+        <v>868.8</v>
       </c>
       <c r="C35">
-        <v>571.01063829787199</v>
+        <v>1070.20930232558</v>
       </c>
       <c r="D35">
-        <v>560.67736215968898</v>
+        <v>969.50465116279099</v>
       </c>
       <c r="E35">
-        <v>1423.7678571428601</v>
+        <v>1664.8461538461499</v>
       </c>
       <c r="F35">
-        <v>1440.4262295082001</v>
+        <v>1880.5660377358499</v>
       </c>
       <c r="G35">
-        <v>1373.6842105263199</v>
+        <v>1877.8367346938801</v>
       </c>
       <c r="H35">
-        <v>1136.19298245614</v>
+        <v>1563.04255319149</v>
       </c>
       <c r="I35">
-        <v>879.74886734850804</v>
+        <v>911.06138657305803</v>
       </c>
       <c r="J35">
-        <v>575.51562029645095</v>
+        <v>593.53790202869902</v>
       </c>
       <c r="K35">
-        <v>-16.658372365339599</v>
+        <v>-215.71988388969501</v>
       </c>
       <c r="L35">
-        <v>237.49122807017599</v>
+        <v>314.79418150238803</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>427.60465116279101</v>
+        <v>550.34408602150495</v>
       </c>
       <c r="C36">
-        <v>443.16666666666703</v>
+        <v>571.01063829787199</v>
       </c>
       <c r="D36">
-        <v>435.38565891472899</v>
+        <v>560.67736215968898</v>
       </c>
       <c r="E36">
-        <v>1191</v>
+        <v>1423.7678571428601</v>
       </c>
       <c r="F36">
-        <v>1058.2033898305101</v>
+        <v>1440.4262295082001</v>
       </c>
       <c r="G36">
-        <v>1085.6666666666699</v>
+        <v>1373.6842105263199</v>
       </c>
       <c r="H36">
-        <v>1066.4107142857099</v>
+        <v>1136.19298245614</v>
       </c>
       <c r="I36">
-        <v>622.81773091577998</v>
+        <v>879.74886734850804</v>
       </c>
       <c r="J36">
-        <v>631.02505537098602</v>
+        <v>575.51562029645095</v>
       </c>
       <c r="K36">
-        <v>132.796610169491</v>
+        <v>-16.658372365339599</v>
       </c>
       <c r="L36">
-        <v>19.2559523809525</v>
+        <v>237.49122807017599</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>585.86813186813197</v>
+        <v>427.60465116279101</v>
       </c>
       <c r="C37">
-        <v>563.804347826087</v>
+        <v>443.16666666666703</v>
       </c>
       <c r="D37">
-        <v>574.83623984710903</v>
+        <v>435.38565891472899</v>
       </c>
       <c r="E37">
-        <v>1139.5357142857099</v>
+        <v>1191</v>
       </c>
       <c r="F37">
-        <v>1121.98245614035</v>
+        <v>1058.2033898305101</v>
       </c>
       <c r="G37">
-        <v>1272.7068965517201</v>
+        <v>1085.6666666666699</v>
       </c>
       <c r="H37">
-        <v>1361.7931034482799</v>
+        <v>1066.4107142857099</v>
       </c>
       <c r="I37">
-        <v>547.14621629324097</v>
+        <v>622.81773091577998</v>
       </c>
       <c r="J37">
-        <v>786.95686360116599</v>
+        <v>631.02505537098602</v>
       </c>
       <c r="K37">
-        <v>17.553258145363301</v>
+        <v>132.796610169491</v>
       </c>
       <c r="L37">
-        <v>-89.086206896551602</v>
+        <v>19.2559523809525</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>501.87209302325601</v>
+        <v>585.86813186813197</v>
       </c>
       <c r="C38">
-        <v>605.05952380952397</v>
+        <v>563.804347826087</v>
       </c>
       <c r="D38">
-        <v>553.46580841639002</v>
+        <v>574.83623984710903</v>
       </c>
       <c r="E38">
-        <v>1359.0857142857101</v>
+        <v>1139.5357142857099</v>
       </c>
       <c r="F38">
-        <v>1199.3829787233999</v>
+        <v>1121.98245614035</v>
       </c>
       <c r="G38">
-        <v>1049.26086956522</v>
+        <v>1272.7068965517201</v>
       </c>
       <c r="H38">
-        <v>856.51111111111095</v>
+        <v>1361.7931034482799</v>
       </c>
       <c r="I38">
-        <v>645.91717030701398</v>
+        <v>547.14621629324097</v>
       </c>
       <c r="J38">
-        <v>303.04530269472099</v>
+        <v>786.95686360116599</v>
       </c>
       <c r="K38">
-        <v>159.70273556231001</v>
+        <v>17.553258145363301</v>
       </c>
       <c r="L38">
-        <v>192.749758454106</v>
+        <v>-89.086206896551602</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -6243,1322 +6360,1436 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>417.25581395348797</v>
+        <v>848.97849462365605</v>
       </c>
       <c r="C52">
-        <v>562.65060240963896</v>
+        <v>921.59782608695696</v>
       </c>
       <c r="D52">
-        <v>489.95320818156301</v>
+        <v>885.28816035530599</v>
       </c>
       <c r="E52">
-        <v>1054.4107142857099</v>
+        <v>1775.95454545455</v>
       </c>
       <c r="F52">
-        <v>845.05454545454495</v>
+        <v>1294.8909090909101</v>
       </c>
       <c r="G52">
-        <v>913.327272727273</v>
+        <v>1698.8392857142901</v>
       </c>
       <c r="H52">
-        <v>923.22222222222194</v>
+        <v>1247.6923076923099</v>
       </c>
       <c r="I52">
-        <v>355.10133727298199</v>
+        <v>409.60274873560297</v>
       </c>
       <c r="J52">
-        <v>433.26901404065899</v>
+        <v>362.40414733700101</v>
       </c>
       <c r="K52">
-        <v>209.35616883116899</v>
+        <v>481.06363636363602</v>
       </c>
       <c r="L52">
-        <v>-9.8949494949493992</v>
+        <v>451.14697802197799</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>848.97849462365605</v>
+        <v>697.94680851063799</v>
       </c>
       <c r="C53">
-        <v>921.59782608695696</v>
+        <v>767.71739130434798</v>
       </c>
       <c r="D53">
-        <v>885.28816035530599</v>
+        <v>732.83209990749299</v>
       </c>
       <c r="E53">
-        <v>1775.95454545455</v>
+        <v>1674.0588235294099</v>
       </c>
       <c r="F53">
-        <v>1294.8909090909101</v>
+        <v>1308.05084745763</v>
       </c>
       <c r="G53">
-        <v>1698.8392857142901</v>
+        <v>1470.96551724138</v>
       </c>
       <c r="H53">
-        <v>1247.6923076923099</v>
+        <v>1419.6551724137901</v>
       </c>
       <c r="I53">
-        <v>409.60274873560297</v>
+        <v>575.21874755013403</v>
       </c>
       <c r="J53">
-        <v>362.40414733700101</v>
+        <v>686.82307250630004</v>
       </c>
       <c r="K53">
-        <v>481.06363636363602</v>
+        <v>366.00797607178498</v>
       </c>
       <c r="L53">
-        <v>451.14697802197799</v>
+        <v>51.310344827586299</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>697.94680851063799</v>
+        <v>522.91489361702099</v>
       </c>
       <c r="C54">
-        <v>767.71739130434798</v>
+        <v>506.07368421052598</v>
       </c>
       <c r="D54">
-        <v>732.83209990749299</v>
+        <v>514.49428891377397</v>
       </c>
       <c r="E54">
-        <v>1674.0588235294099</v>
+        <v>1073.7241379310301</v>
       </c>
       <c r="F54">
-        <v>1308.05084745763</v>
+        <v>978.98333333333301</v>
       </c>
       <c r="G54">
-        <v>1470.96551724138</v>
+        <v>1093.56666666667</v>
       </c>
       <c r="H54">
-        <v>1419.6551724137901</v>
+        <v>1017.08474576271</v>
       </c>
       <c r="I54">
-        <v>575.21874755013403</v>
+        <v>464.48904441956</v>
       </c>
       <c r="J54">
-        <v>686.82307250630004</v>
+        <v>502.590456848938</v>
       </c>
       <c r="K54">
-        <v>366.00797607178498</v>
+        <v>94.7408045977011</v>
       </c>
       <c r="L54">
-        <v>51.310344827586299</v>
+        <v>76.481920903954702</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>464.55813953488399</v>
+        <v>630.10638297872299</v>
       </c>
       <c r="C55">
-        <v>501</v>
+        <v>650.24210526315801</v>
       </c>
       <c r="D55">
-        <v>482.77906976744202</v>
+        <v>640.17424412094101</v>
       </c>
       <c r="E55">
-        <v>1293.6590909090901</v>
+        <v>1249.52542372881</v>
       </c>
       <c r="F55">
-        <v>1086.07407407407</v>
+        <v>1331.08620689655</v>
       </c>
       <c r="G55">
-        <v>1190.9411764705901</v>
+        <v>1327.93333333333</v>
       </c>
       <c r="H55">
-        <v>1040.52</v>
+        <v>1274.9649122807</v>
       </c>
       <c r="I55">
-        <v>603.29500430663199</v>
+        <v>690.91196277561096</v>
       </c>
       <c r="J55">
-        <v>557.74093023255796</v>
+        <v>634.79066815976103</v>
       </c>
       <c r="K55">
-        <v>207.585016835017</v>
+        <v>-81.560783167737995</v>
       </c>
       <c r="L55">
-        <v>150.42117647058799</v>
+        <v>52.968421052631598</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>522.91489361702099</v>
+        <v>526.98947368421102</v>
       </c>
       <c r="C56">
-        <v>506.07368421052598</v>
+        <v>577.43157894736805</v>
       </c>
       <c r="D56">
-        <v>514.49428891377397</v>
+        <v>552.21052631578902</v>
       </c>
       <c r="E56">
-        <v>1073.7241379310301</v>
+        <v>1098.0169491525401</v>
       </c>
       <c r="F56">
-        <v>978.98333333333301</v>
+        <v>1129.56666666667</v>
       </c>
       <c r="G56">
-        <v>1093.56666666667</v>
+        <v>1069.64406779661</v>
       </c>
       <c r="H56">
-        <v>1017.08474576271</v>
+        <v>998.05084745762701</v>
       </c>
       <c r="I56">
-        <v>464.48904441956</v>
+        <v>577.35614035087701</v>
       </c>
       <c r="J56">
-        <v>502.590456848938</v>
+        <v>445.84032114183799</v>
       </c>
       <c r="K56">
-        <v>94.7408045977011</v>
+        <v>-31.5497175141243</v>
       </c>
       <c r="L56">
-        <v>76.481920903954702</v>
+        <v>71.593220338983102</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>630.10638297872299</v>
+        <v>600.84210526315803</v>
       </c>
       <c r="C57">
-        <v>650.24210526315801</v>
+        <v>919.054347826087</v>
       </c>
       <c r="D57">
-        <v>640.17424412094101</v>
+        <v>759.948226544622</v>
       </c>
       <c r="E57">
-        <v>1249.52542372881</v>
+        <v>1337.3928571428601</v>
       </c>
       <c r="F57">
-        <v>1331.08620689655</v>
+        <v>1411.18644067797</v>
       </c>
       <c r="G57">
-        <v>1327.93333333333</v>
+        <v>1435.0169491525401</v>
       </c>
       <c r="H57">
-        <v>1274.9649122807</v>
+        <v>1202.53448275862</v>
       </c>
       <c r="I57">
-        <v>690.91196277561096</v>
+        <v>651.23821413334394</v>
       </c>
       <c r="J57">
-        <v>634.79066815976103</v>
+        <v>442.58625621399801</v>
       </c>
       <c r="K57">
-        <v>-81.560783167737995</v>
+        <v>-73.793583535109093</v>
       </c>
       <c r="L57">
-        <v>52.968421052631598</v>
+        <v>232.48246639392201</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>526.98947368421102</v>
+        <v>606.40860215053794</v>
       </c>
       <c r="C58">
-        <v>577.43157894736805</v>
+        <v>542.91111111111104</v>
       </c>
       <c r="D58">
-        <v>552.21052631578902</v>
+        <v>574.65985663082404</v>
       </c>
       <c r="E58">
-        <v>1098.0169491525401</v>
+        <v>1511.98113207547</v>
       </c>
       <c r="F58">
-        <v>1129.56666666667</v>
+        <v>1549.6551724137901</v>
       </c>
       <c r="G58">
-        <v>1069.64406779661</v>
+        <v>1349.6909090909101</v>
       </c>
       <c r="H58">
-        <v>998.05084745762701</v>
+        <v>1059.1320754717001</v>
       </c>
       <c r="I58">
-        <v>577.35614035087701</v>
+        <v>974.99531578296899</v>
       </c>
       <c r="J58">
-        <v>445.84032114183799</v>
+        <v>484.47221884087401</v>
       </c>
       <c r="K58">
-        <v>-31.5497175141243</v>
+        <v>-37.674040338321198</v>
       </c>
       <c r="L58">
-        <v>71.593220338983102</v>
+        <v>290.55883361921099</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>600.84210526315803</v>
+        <v>509.87368421052599</v>
       </c>
       <c r="C59">
-        <v>919.054347826087</v>
+        <v>568.36559139784902</v>
       </c>
       <c r="D59">
-        <v>759.948226544622</v>
+        <v>539.11963780418796</v>
       </c>
       <c r="E59">
-        <v>1337.3928571428601</v>
+        <v>1039.8571428571399</v>
       </c>
       <c r="F59">
-        <v>1411.18644067797</v>
+        <v>1073.75</v>
       </c>
       <c r="G59">
-        <v>1435.0169491525401</v>
+        <v>1264.25490196078</v>
       </c>
       <c r="H59">
-        <v>1202.53448275862</v>
+        <v>994.28301886792497</v>
       </c>
       <c r="I59">
-        <v>651.23821413334394</v>
+        <v>534.63036219581204</v>
       </c>
       <c r="J59">
-        <v>442.58625621399801</v>
+        <v>455.16338106373701</v>
       </c>
       <c r="K59">
-        <v>-73.793583535109093</v>
+        <v>-33.892857142857103</v>
       </c>
       <c r="L59">
-        <v>232.48246639392201</v>
+        <v>269.97188309286003</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>606.40860215053794</v>
+        <v>472.69791666666703</v>
       </c>
       <c r="C60">
-        <v>542.91111111111104</v>
+        <v>521.98936170212801</v>
       </c>
       <c r="D60">
-        <v>574.65985663082404</v>
+        <v>497.34363918439698</v>
       </c>
       <c r="E60">
-        <v>1511.98113207547</v>
+        <v>992.51724137931001</v>
       </c>
       <c r="F60">
-        <v>1549.6551724137901</v>
+        <v>955.27586206896501</v>
       </c>
       <c r="G60">
-        <v>1349.6909090909101</v>
+        <v>938.28571428571399</v>
       </c>
       <c r="H60">
-        <v>1059.1320754717001</v>
+        <v>818.46428571428601</v>
       </c>
       <c r="I60">
-        <v>974.99531578296899</v>
+        <v>457.93222288456798</v>
       </c>
       <c r="J60">
-        <v>484.47221884087401</v>
+        <v>321.12064652988897</v>
       </c>
       <c r="K60">
-        <v>-37.674040338321198</v>
+        <v>37.241379310344897</v>
       </c>
       <c r="L60">
-        <v>290.55883361921099</v>
+        <v>119.821428571429</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>509.87368421052599</v>
+        <v>529.462365591398</v>
       </c>
       <c r="C61">
-        <v>568.36559139784902</v>
+        <v>536.13829787233999</v>
       </c>
       <c r="D61">
-        <v>539.11963780418796</v>
+        <v>532.80033173186905</v>
       </c>
       <c r="E61">
-        <v>1039.8571428571399</v>
+        <v>1185.7962962962999</v>
       </c>
       <c r="F61">
-        <v>1073.75</v>
+        <v>1142.2711864406799</v>
       </c>
       <c r="G61">
-        <v>1264.25490196078</v>
+        <v>1040.4576271186399</v>
       </c>
       <c r="H61">
-        <v>994.28301886792497</v>
+        <v>1051.4210526315801</v>
       </c>
       <c r="I61">
-        <v>534.63036219581204</v>
+        <v>609.47085470880904</v>
       </c>
       <c r="J61">
-        <v>455.16338106373701</v>
+        <v>518.62072089971002</v>
       </c>
       <c r="K61">
-        <v>-33.892857142857103</v>
+        <v>43.525109855618403</v>
       </c>
       <c r="L61">
-        <v>269.97188309286003</v>
+        <v>-10.963425512934901</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>472.69791666666703</v>
+        <v>497.97802197802201</v>
       </c>
       <c r="C62">
-        <v>521.98936170212801</v>
+        <v>532.18888888888898</v>
       </c>
       <c r="D62">
-        <v>497.34363918439698</v>
+        <v>515.08345543345501</v>
       </c>
       <c r="E62">
-        <v>992.51724137931001</v>
+        <v>987.13207547169804</v>
       </c>
       <c r="F62">
-        <v>955.27586206896501</v>
+        <v>735.46551724137896</v>
       </c>
       <c r="G62">
-        <v>938.28571428571399</v>
+        <v>1085.7222222222199</v>
       </c>
       <c r="H62">
-        <v>818.46428571428601</v>
+        <v>790.21568627450995</v>
       </c>
       <c r="I62">
-        <v>457.93222288456798</v>
+        <v>220.382061807924</v>
       </c>
       <c r="J62">
-        <v>321.12064652988897</v>
+        <v>275.13223084105402</v>
       </c>
       <c r="K62">
-        <v>37.241379310344897</v>
+        <v>251.666558230319</v>
       </c>
       <c r="L62">
-        <v>119.821428571429</v>
+        <v>295.506535947712</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>529.462365591398</v>
+        <v>870.79787234042601</v>
       </c>
       <c r="C63">
-        <v>536.13829787233999</v>
+        <v>1041.5977011494299</v>
       </c>
       <c r="D63">
-        <v>532.80033173186905</v>
+        <v>956.197786744925</v>
       </c>
       <c r="E63">
-        <v>1185.7962962962999</v>
+        <v>1509.4130434782601</v>
       </c>
       <c r="F63">
-        <v>1142.2711864406799</v>
+        <v>1225.69387755102</v>
       </c>
       <c r="G63">
-        <v>1040.4576271186399</v>
+        <v>1756.0338983050799</v>
       </c>
       <c r="H63">
-        <v>1051.4210526315801</v>
+        <v>1388.47272727273</v>
       </c>
       <c r="I63">
-        <v>609.47085470880904</v>
+        <v>269.49609080609503</v>
       </c>
       <c r="J63">
-        <v>518.62072089971002</v>
+        <v>432.27494052780202</v>
       </c>
       <c r="K63">
-        <v>43.525109855618403</v>
+        <v>283.71916592724</v>
       </c>
       <c r="L63">
-        <v>-10.963425512934901</v>
+        <v>367.56117103235698</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>497.97802197802201</v>
+        <v>535.08988764044898</v>
       </c>
       <c r="C64">
-        <v>532.18888888888898</v>
+        <v>566.77906976744202</v>
       </c>
       <c r="D64">
-        <v>515.08345543345501</v>
+        <v>550.93447870394596</v>
       </c>
       <c r="E64">
-        <v>987.13207547169804</v>
+        <v>1145.21818181818</v>
       </c>
       <c r="F64">
-        <v>735.46551724137896</v>
+        <v>1111.5263157894699</v>
       </c>
       <c r="G64">
-        <v>1085.7222222222199</v>
+        <v>1217.8</v>
       </c>
       <c r="H64">
-        <v>790.21568627450995</v>
+        <v>1026.98245614035</v>
       </c>
       <c r="I64">
-        <v>220.382061807924</v>
+        <v>560.59183708552803</v>
       </c>
       <c r="J64">
-        <v>275.13223084105402</v>
+        <v>476.04797743640501</v>
       </c>
       <c r="K64">
-        <v>251.666558230319</v>
+        <v>33.691866028708098</v>
       </c>
       <c r="L64">
-        <v>295.506535947712</v>
+        <v>190.81754385964899</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>870.79787234042601</v>
+        <v>691.78947368421098</v>
       </c>
       <c r="C65">
-        <v>1041.5977011494299</v>
+        <v>868.02150537634395</v>
       </c>
       <c r="D65">
-        <v>956.197786744925</v>
+        <v>779.90548953027701</v>
       </c>
       <c r="E65">
-        <v>1509.4130434782601</v>
+        <v>1292.7192982456099</v>
       </c>
       <c r="F65">
-        <v>1225.69387755102</v>
+        <v>1428.3392857142901</v>
       </c>
       <c r="G65">
-        <v>1756.0338983050799</v>
+        <v>1234.6500000000001</v>
       </c>
       <c r="H65">
-        <v>1388.47272727273</v>
+        <v>1164.3793103448299</v>
       </c>
       <c r="I65">
-        <v>269.49609080609503</v>
+        <v>648.433796184009</v>
       </c>
       <c r="J65">
-        <v>432.27494052780202</v>
+        <v>384.47382081454998</v>
       </c>
       <c r="K65">
-        <v>283.71916592724</v>
+        <v>-135.61998746867201</v>
       </c>
       <c r="L65">
-        <v>367.56117103235698</v>
+        <v>70.270689655172404</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>535.08988764044898</v>
+        <v>605.84269662921304</v>
       </c>
       <c r="C66">
-        <v>566.77906976744202</v>
+        <v>686.10112359550601</v>
       </c>
       <c r="D66">
-        <v>550.93447870394596</v>
+        <v>645.97191011235998</v>
       </c>
       <c r="E66">
-        <v>1145.21818181818</v>
+        <v>1467.8297872340399</v>
       </c>
       <c r="F66">
-        <v>1111.5263157894699</v>
+        <v>1350.64705882353</v>
       </c>
       <c r="G66">
-        <v>1217.8</v>
+        <v>1548.3461538461499</v>
       </c>
       <c r="H66">
-        <v>1026.98245614035</v>
+        <v>1259.1818181818201</v>
       </c>
       <c r="I66">
-        <v>560.59183708552803</v>
+        <v>704.67514871116998</v>
       </c>
       <c r="J66">
-        <v>476.04797743640501</v>
+        <v>613.20990806945895</v>
       </c>
       <c r="K66">
-        <v>33.691866028708098</v>
+        <v>117.18272841051299</v>
       </c>
       <c r="L66">
-        <v>190.81754385964899</v>
+        <v>289.16433566433602</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>691.78947368421098</v>
+        <v>919.389473684211</v>
       </c>
       <c r="C67">
-        <v>868.02150537634395</v>
+        <v>1154.45744680851</v>
       </c>
       <c r="D67">
-        <v>779.90548953027701</v>
+        <v>1036.92346024636</v>
       </c>
       <c r="E67">
-        <v>1292.7192982456099</v>
+        <v>2713.0357142857101</v>
       </c>
       <c r="F67">
-        <v>1428.3392857142901</v>
+        <v>2422.18644067797</v>
       </c>
       <c r="G67">
-        <v>1234.6500000000001</v>
+        <v>2241.1818181818198</v>
       </c>
       <c r="H67">
-        <v>1164.3793103448299</v>
+        <v>2107.8867924528299</v>
       </c>
       <c r="I67">
-        <v>648.433796184009</v>
+        <v>1385.26298043161</v>
       </c>
       <c r="J67">
-        <v>384.47382081454998</v>
+        <v>1070.9633322064701</v>
       </c>
       <c r="K67">
-        <v>-135.61998746867201</v>
+        <v>290.84927360774799</v>
       </c>
       <c r="L67">
-        <v>70.270689655172404</v>
+        <v>133.29502572898801</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>605.84269662921304</v>
+        <v>1263.1818181818201</v>
       </c>
       <c r="C68">
-        <v>686.10112359550601</v>
+        <v>1003.37837837838</v>
       </c>
       <c r="D68">
-        <v>645.97191011235998</v>
+        <v>1133.2800982801</v>
       </c>
       <c r="E68">
-        <v>1467.8297872340399</v>
+        <v>1599.9</v>
       </c>
       <c r="F68">
-        <v>1350.64705882353</v>
+        <v>1810.3125</v>
       </c>
       <c r="G68">
-        <v>1548.3461538461499</v>
+        <v>1809.9107142857099</v>
       </c>
       <c r="H68">
-        <v>1259.1818181818201</v>
+        <v>1763.54</v>
       </c>
       <c r="I68">
-        <v>704.67514871116998</v>
+        <v>677.03240171990205</v>
       </c>
       <c r="J68">
-        <v>613.20990806945895</v>
+        <v>630.25990171990202</v>
       </c>
       <c r="K68">
-        <v>117.18272841051299</v>
+        <v>-210.41249999999999</v>
       </c>
       <c r="L68">
-        <v>289.16433566433602</v>
+        <v>46.3707142857143</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>919.389473684211</v>
+        <v>613.93548387096803</v>
       </c>
       <c r="C69">
-        <v>1154.45744680851</v>
+        <v>675.70967741935499</v>
       </c>
       <c r="D69">
-        <v>1036.92346024636</v>
+        <v>644.822580645161</v>
       </c>
       <c r="E69">
-        <v>2713.0357142857101</v>
+        <v>1528.2962962962999</v>
       </c>
       <c r="F69">
-        <v>2422.18644067797</v>
+        <v>1508.3636363636399</v>
       </c>
       <c r="G69">
-        <v>2241.1818181818198</v>
+        <v>1571.3859649122801</v>
       </c>
       <c r="H69">
-        <v>2107.8867924528299</v>
+        <v>1270.07407407407</v>
       </c>
       <c r="I69">
-        <v>1385.26298043161</v>
+        <v>863.54105571847504</v>
       </c>
       <c r="J69">
-        <v>1070.9633322064701</v>
+        <v>625.25149342891302</v>
       </c>
       <c r="K69">
-        <v>290.84927360774799</v>
+        <v>19.932659932659998</v>
       </c>
       <c r="L69">
-        <v>133.29502572898801</v>
+        <v>301.31189083820698</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>1263.1818181818201</v>
+        <v>675.45652173913004</v>
       </c>
       <c r="C70">
-        <v>1003.37837837838</v>
+        <v>691.83695652173901</v>
       </c>
       <c r="D70">
-        <v>1133.2800982801</v>
+        <v>683.64673913043498</v>
       </c>
       <c r="E70">
-        <v>1599.9</v>
+        <v>1589.6923076923099</v>
       </c>
       <c r="F70">
-        <v>1810.3125</v>
+        <v>1138.94736842105</v>
       </c>
       <c r="G70">
-        <v>1809.9107142857099</v>
+        <v>1789.1525423728799</v>
       </c>
       <c r="H70">
-        <v>1763.54</v>
+        <v>1390.4814814814799</v>
       </c>
       <c r="I70">
-        <v>677.03240171990205</v>
+        <v>455.30062929061802</v>
       </c>
       <c r="J70">
-        <v>630.25990171990202</v>
+        <v>706.834742351047</v>
       </c>
       <c r="K70">
-        <v>-210.41249999999999</v>
+        <v>450.74493927125502</v>
       </c>
       <c r="L70">
-        <v>46.3707142857143</v>
+        <v>398.67106089139997</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>613.93548387096803</v>
+        <v>783.52127659574501</v>
       </c>
       <c r="C71">
-        <v>675.70967741935499</v>
+        <v>929.97849462365605</v>
       </c>
       <c r="D71">
-        <v>644.822580645161</v>
+        <v>856.74988560969996</v>
       </c>
       <c r="E71">
-        <v>1528.2962962962999</v>
+        <v>1961.6666666666699</v>
       </c>
       <c r="F71">
-        <v>1508.3636363636399</v>
+        <v>2161.7966101694901</v>
       </c>
       <c r="G71">
-        <v>1571.3859649122801</v>
+        <v>2210.8070175438602</v>
       </c>
       <c r="H71">
-        <v>1270.07407407407</v>
+        <v>1805.27272727273</v>
       </c>
       <c r="I71">
-        <v>863.54105571847504</v>
+        <v>1305.0467245597899</v>
       </c>
       <c r="J71">
-        <v>625.25149342891302</v>
+        <v>948.52284166302695</v>
       </c>
       <c r="K71">
-        <v>19.932659932659998</v>
+        <v>-200.129943502825</v>
       </c>
       <c r="L71">
-        <v>301.31189083820698</v>
+        <v>405.53429027113202</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>675.45652173913004</v>
+        <v>736.33333333333303</v>
       </c>
       <c r="C72">
-        <v>691.83695652173901</v>
+        <v>746.63157894736798</v>
       </c>
       <c r="D72">
-        <v>683.64673913043498</v>
+        <v>741.48245614035102</v>
       </c>
       <c r="E72">
-        <v>1589.6923076923099</v>
+        <v>1465.35849056604</v>
       </c>
       <c r="F72">
-        <v>1138.94736842105</v>
+        <v>1350.5593220338999</v>
       </c>
       <c r="G72">
-        <v>1789.1525423728799</v>
+        <v>1343.94915254237</v>
       </c>
       <c r="H72">
-        <v>1390.4814814814799</v>
+        <v>1117.01754385965</v>
       </c>
       <c r="I72">
-        <v>455.30062929061802</v>
+        <v>609.07686589354705</v>
       </c>
       <c r="J72">
-        <v>706.834742351047</v>
+        <v>375.53508771929802</v>
       </c>
       <c r="K72">
-        <v>450.74493927125502</v>
+        <v>114.79916853213901</v>
       </c>
       <c r="L72">
-        <v>398.67106089139997</v>
+        <v>226.931608682724</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>783.52127659574501</v>
+        <v>541.84782608695696</v>
       </c>
       <c r="C73">
-        <v>929.97849462365605</v>
+        <v>686.57303370786497</v>
       </c>
       <c r="D73">
-        <v>856.74988560969996</v>
+        <v>614.21042989741102</v>
       </c>
       <c r="E73">
-        <v>1961.6666666666699</v>
+        <v>1490.3392857142901</v>
       </c>
       <c r="F73">
-        <v>2161.7966101694901</v>
+        <v>1147.31666666667</v>
       </c>
       <c r="G73">
-        <v>2210.8070175438602</v>
+        <v>1696.1454545454501</v>
       </c>
       <c r="H73">
-        <v>1805.27272727273</v>
+        <v>1165.75925925926</v>
       </c>
       <c r="I73">
-        <v>1305.0467245597899</v>
+        <v>533.10623676925604</v>
       </c>
       <c r="J73">
-        <v>948.52284166302695</v>
+        <v>551.54882936184799</v>
       </c>
       <c r="K73">
-        <v>-200.129943502825</v>
+        <v>343.022619047619</v>
       </c>
       <c r="L73">
-        <v>405.53429027113202</v>
+        <v>530.38619528619495</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>736.33333333333303</v>
+        <v>586.15053763440903</v>
       </c>
       <c r="C74">
-        <v>746.63157894736798</v>
+        <v>627.05319148936201</v>
       </c>
       <c r="D74">
-        <v>741.48245614035102</v>
+        <v>606.60186456188501</v>
       </c>
       <c r="E74">
-        <v>1465.35849056604</v>
+        <v>1394.9107142857099</v>
       </c>
       <c r="F74">
-        <v>1350.5593220338999</v>
+        <v>1383.4181818181801</v>
       </c>
       <c r="G74">
-        <v>1343.94915254237</v>
+        <v>1313.57627118644</v>
       </c>
       <c r="H74">
-        <v>1117.01754385965</v>
+        <v>1133.4629629629601</v>
       </c>
       <c r="I74">
-        <v>609.07686589354705</v>
+        <v>776.816317256297</v>
       </c>
       <c r="J74">
-        <v>375.53508771929802</v>
+        <v>526.86109840107804</v>
       </c>
       <c r="K74">
-        <v>114.79916853213901</v>
+        <v>11.4925324675323</v>
       </c>
       <c r="L74">
-        <v>226.931608682724</v>
+        <v>180.11330822347799</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>541.84782608695696</v>
+        <v>720.04255319148899</v>
       </c>
       <c r="C75">
-        <v>686.57303370786497</v>
+        <v>697.86315789473701</v>
       </c>
       <c r="D75">
-        <v>614.21042989741102</v>
+        <v>708.95285554311295</v>
       </c>
       <c r="E75">
-        <v>1490.3392857142901</v>
+        <v>1317.46551724138</v>
       </c>
       <c r="F75">
-        <v>1147.31666666667</v>
+        <v>1063.2033898305101</v>
       </c>
       <c r="G75">
-        <v>1696.1454545454501</v>
+        <v>1562.74545454545</v>
       </c>
       <c r="H75">
-        <v>1165.75925925926</v>
+        <v>1222.75</v>
       </c>
       <c r="I75">
-        <v>533.10623676925604</v>
+        <v>354.250534287395</v>
       </c>
       <c r="J75">
-        <v>551.54882936184799</v>
+        <v>513.79714445688705</v>
       </c>
       <c r="K75">
-        <v>343.022619047619</v>
+        <v>254.26212741087099</v>
       </c>
       <c r="L75">
-        <v>530.38619528619495</v>
+        <v>339.995454545455</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>586.15053763440903</v>
+        <v>718.41489361702099</v>
       </c>
       <c r="C76">
-        <v>627.05319148936201</v>
+        <v>965.244680851064</v>
       </c>
       <c r="D76">
-        <v>606.60186456188501</v>
+        <v>841.82978723404199</v>
       </c>
       <c r="E76">
-        <v>1394.9107142857099</v>
+        <v>1979.46551724138</v>
       </c>
       <c r="F76">
-        <v>1383.4181818181801</v>
+        <v>2012.8275862068999</v>
       </c>
       <c r="G76">
-        <v>1313.57627118644</v>
+        <v>1631.5818181818199</v>
       </c>
       <c r="H76">
-        <v>1133.4629629629601</v>
+        <v>1352.9090909090901</v>
       </c>
       <c r="I76">
-        <v>776.816317256297</v>
+        <v>1170.99779897285</v>
       </c>
       <c r="J76">
-        <v>526.86109840107804</v>
+        <v>511.079303675049</v>
       </c>
       <c r="K76">
-        <v>11.4925324675323</v>
+        <v>-33.362068965517203</v>
       </c>
       <c r="L76">
-        <v>180.11330822347799</v>
+        <v>278.672727272727</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B77">
-        <v>720.04255319148899</v>
+        <v>604.59375</v>
       </c>
       <c r="C77">
-        <v>697.86315789473701</v>
+        <v>829.01086956521704</v>
       </c>
       <c r="D77">
-        <v>708.95285554311295</v>
+        <v>716.80230978260897</v>
       </c>
       <c r="E77">
-        <v>1317.46551724138</v>
+        <v>1728.75</v>
       </c>
       <c r="F77">
-        <v>1063.2033898305101</v>
+        <v>1284.8181818181799</v>
       </c>
       <c r="G77">
-        <v>1562.74545454545</v>
+        <v>1979.03773584906</v>
       </c>
       <c r="H77">
-        <v>1222.75</v>
+        <v>1430.0909090909099</v>
       </c>
       <c r="I77">
-        <v>354.250534287395</v>
+        <v>568.01587203557301</v>
       </c>
       <c r="J77">
-        <v>513.79714445688705</v>
+        <v>713.28859930830004</v>
       </c>
       <c r="K77">
-        <v>254.26212741087099</v>
+        <v>443.93181818181802</v>
       </c>
       <c r="L77">
-        <v>339.995454545455</v>
+        <v>548.94682675814795</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B78">
-        <v>718.41489361702099</v>
+        <v>598.95744680851101</v>
       </c>
       <c r="C78">
-        <v>965.244680851064</v>
+        <v>671.43478260869597</v>
       </c>
       <c r="D78">
-        <v>841.82978723404199</v>
+        <v>635.19611470860298</v>
       </c>
       <c r="E78">
-        <v>1979.46551724138</v>
+        <v>1351.70909090909</v>
       </c>
       <c r="F78">
-        <v>2012.8275862068999</v>
+        <v>1328.9814814814799</v>
       </c>
       <c r="G78">
-        <v>1631.5818181818199</v>
+        <v>1347.07142857143</v>
       </c>
       <c r="H78">
-        <v>1352.9090909090901</v>
+        <v>1146.72727272727</v>
       </c>
       <c r="I78">
-        <v>1170.99779897285</v>
+        <v>693.78536677287798</v>
       </c>
       <c r="J78">
-        <v>511.079303675049</v>
+        <v>511.53115801867</v>
       </c>
       <c r="K78">
-        <v>-33.362068965517203</v>
+        <v>22.727609427609401</v>
       </c>
       <c r="L78">
-        <v>278.672727272727</v>
+        <v>200.34415584415601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>587.91208791208805</v>
+      </c>
+      <c r="C79">
+        <v>605.18478260869597</v>
+      </c>
+      <c r="D79">
+        <v>596.54843526039201</v>
+      </c>
+      <c r="E79">
+        <v>1152.75925925926</v>
+      </c>
+      <c r="F79">
+        <v>786.76363636363601</v>
+      </c>
+      <c r="G79">
+        <v>1297.82142857143</v>
+      </c>
+      <c r="H79">
+        <v>1063.93103448276</v>
+      </c>
+      <c r="I79">
+        <v>190.21520110324499</v>
+      </c>
+      <c r="J79">
+        <v>467.38259922236699</v>
+      </c>
+      <c r="K79">
+        <v>365.995622895623</v>
+      </c>
+      <c r="L79">
+        <v>233.89039408867001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>91</v>
+      </c>
+      <c r="B80">
+        <v>472.94791666666703</v>
+      </c>
+      <c r="C80">
+        <v>590.67021276595699</v>
+      </c>
+      <c r="D80">
+        <v>531.80906471631204</v>
+      </c>
+      <c r="E80">
+        <v>1403.5178571428601</v>
+      </c>
+      <c r="F80">
+        <v>1321.3220338983101</v>
+      </c>
+      <c r="G80">
+        <v>1234.9666666666701</v>
+      </c>
+      <c r="H80">
+        <v>1170.3392857142901</v>
+      </c>
+      <c r="I80">
+        <v>789.51296918199296</v>
+      </c>
+      <c r="J80">
+        <v>638.53022099797397</v>
+      </c>
+      <c r="K80">
+        <v>82.195823244552003</v>
+      </c>
+      <c r="L80">
+        <v>64.627380952380904</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>12</v>
+      <c r="A81">
+        <v>92</v>
       </c>
       <c r="B81">
-        <f>AVERAGE(B2:B78)</f>
-        <v>645.52234039519101</v>
+        <v>521.78888888888901</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:L81" si="0">AVERAGE(C2:C78)</f>
-        <v>709.48264832020698</v>
+        <v>520.35869565217399</v>
       </c>
       <c r="D81">
-        <f t="shared" si="0"/>
-        <v>677.50249435769865</v>
+        <v>521.07379227053104</v>
       </c>
       <c r="E81">
-        <f t="shared" si="0"/>
-        <v>1415.3498572697602</v>
+        <v>1110.7719298245599</v>
       </c>
       <c r="F81">
-        <f t="shared" si="0"/>
-        <v>1346.5040221559339</v>
+        <v>948.23728813559296</v>
       </c>
       <c r="G81">
-        <f t="shared" si="0"/>
-        <v>1428.155830472122</v>
+        <v>1125.03636363636</v>
       </c>
       <c r="H81">
-        <f t="shared" si="0"/>
-        <v>1248.0311526368546</v>
+        <v>961.79661016949103</v>
       </c>
       <c r="I81">
-        <f t="shared" si="0"/>
-        <v>669.00152779823497</v>
+        <v>427.16349586506198</v>
       </c>
       <c r="J81">
-        <f t="shared" si="0"/>
-        <v>570.52865827915571</v>
+        <v>440.72281789895999</v>
       </c>
       <c r="K81">
-        <f t="shared" si="0"/>
-        <v>68.845835113826823</v>
+        <v>162.53464168896801</v>
       </c>
       <c r="L81">
-        <f t="shared" si="0"/>
-        <v>180.12467783526773</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82">
-        <f>STDEV(B2:B78)</f>
-        <v>144.50248728301347</v>
-      </c>
-      <c r="C82">
-        <f t="shared" ref="C82:L82" si="1">STDEV(C2:C78)</f>
-        <v>175.26973836195569</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="1"/>
-        <v>151.43395652946458</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="1"/>
-        <v>307.17967436763053</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>323.7408368250529</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="1"/>
-        <v>365.21430820443152</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="1"/>
-        <v>299.10572395573246</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="1"/>
-        <v>246.46345841535202</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="1"/>
-        <v>221.67314090851974</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="1"/>
-        <v>160.47208235311825</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="1"/>
-        <v>145.03434975010157</v>
+        <v>163.239753466872</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <f>B82/(SQRT(59))</f>
-        <v>18.812621453395874</v>
+        <f>AVERAGE(B2:B81)</f>
+        <v>648.4289801458774</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83:L83" si="2">C82/(SQRT(59))</f>
-        <v>22.81817636523694</v>
+        <f t="shared" ref="C83:L83" si="0">AVERAGE(C2:C81)</f>
+        <v>712.47990443702201</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
-        <v>19.715021886088415</v>
+        <f t="shared" si="0"/>
+        <v>680.45444229144914</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
-        <v>39.991387281365917</v>
+        <f t="shared" si="0"/>
+        <v>1419.4555506342815</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
-        <v>42.147466986274239</v>
+        <f t="shared" si="0"/>
+        <v>1346.9750684401849</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
-        <v>47.546853059749907</v>
+        <f t="shared" si="0"/>
+        <v>1442.9139389411507</v>
       </c>
       <c r="H83">
-        <f t="shared" si="2"/>
-        <v>38.940248469927731</v>
+        <f t="shared" si="0"/>
+        <v>1255.0974103709891</v>
       </c>
       <c r="I83">
-        <f t="shared" si="2"/>
-        <v>32.086809247662252</v>
+        <f t="shared" si="0"/>
+        <v>666.52062614873546</v>
       </c>
       <c r="J83">
-        <f t="shared" si="2"/>
-        <v>28.859384808578902</v>
+        <f t="shared" si="0"/>
+        <v>574.64296807953929</v>
       </c>
       <c r="K83">
-        <f t="shared" si="2"/>
-        <v>20.891685644377549</v>
+        <f t="shared" si="0"/>
+        <v>72.480482194096936</v>
       </c>
       <c r="L83">
-        <f t="shared" si="2"/>
-        <v>18.881864048777647</v>
+        <f t="shared" si="0"/>
+        <v>187.81652857016186</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B84">
-        <f>B83*1.96</f>
-        <v>36.872738048655911</v>
+        <f>STDEV(B2:B81)</f>
+        <v>140.00974975619286</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:L84" si="3">C83*1.96</f>
-        <v>44.723625675864405</v>
+        <f t="shared" ref="C84:L84" si="1">STDEV(C2:C81)</f>
+        <v>172.64502515374915</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
-        <v>38.641442896733295</v>
+        <f t="shared" si="1"/>
+        <v>147.82163320342221</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
-        <v>78.383119071477196</v>
+        <f t="shared" si="1"/>
+        <v>304.03121204835861</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
-        <v>82.609035293097506</v>
+        <f t="shared" si="1"/>
+        <v>320.97861057676528</v>
       </c>
       <c r="G84">
-        <f t="shared" si="3"/>
-        <v>93.191831997109816</v>
+        <f t="shared" si="1"/>
+        <v>358.54091761309121</v>
       </c>
       <c r="H84">
-        <f t="shared" si="3"/>
-        <v>76.322887001058348</v>
+        <f t="shared" si="1"/>
+        <v>290.87927259728792</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
-        <v>62.890146125418013</v>
+        <f t="shared" si="1"/>
+        <v>247.31027934290694</v>
       </c>
       <c r="J84">
-        <f t="shared" si="3"/>
-        <v>56.564394224814649</v>
+        <f t="shared" si="1"/>
+        <v>217.28837872546183</v>
       </c>
       <c r="K84">
-        <f t="shared" si="3"/>
-        <v>40.947703862979999</v>
+        <f t="shared" si="1"/>
+        <v>165.13124714011818</v>
       </c>
       <c r="L84">
-        <f t="shared" si="3"/>
-        <v>37.00845353560419</v>
+        <f t="shared" si="1"/>
+        <v>148.64141670425931</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85">
-        <f>B81+B84</f>
-        <v>682.39507844384696</v>
+        <f>B84/(SQRT(80))</f>
+        <v>15.653565898379091</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85:L85" si="4">C81+C84</f>
-        <v>754.20627399607133</v>
+        <f t="shared" ref="C85:L85" si="2">C84/(SQRT(80))</f>
+        <v>19.302300611047208</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
-        <v>716.14393725443199</v>
+        <f t="shared" si="2"/>
+        <v>16.526961019394601</v>
       </c>
       <c r="E85">
-        <f t="shared" si="4"/>
-        <v>1493.7329763412374</v>
+        <f t="shared" si="2"/>
+        <v>33.991722871089145</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
-        <v>1429.1130574490314</v>
+        <f t="shared" si="2"/>
+        <v>35.886499628654008</v>
       </c>
       <c r="G85">
-        <f t="shared" si="4"/>
-        <v>1521.3476624692319</v>
+        <f t="shared" si="2"/>
+        <v>40.086093224901177</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
-        <v>1324.354039637913</v>
+        <f t="shared" si="2"/>
+        <v>32.521291338661378</v>
       </c>
       <c r="I85">
-        <f t="shared" si="4"/>
-        <v>731.891673923653</v>
+        <f t="shared" si="2"/>
+        <v>27.650129807260097</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
-        <v>627.0930525039704</v>
+        <f t="shared" si="2"/>
+        <v>24.293579277542587</v>
       </c>
       <c r="K85">
-        <f t="shared" si="4"/>
-        <v>109.79353897680681</v>
+        <f t="shared" si="2"/>
+        <v>18.462234690731098</v>
       </c>
       <c r="L85">
-        <f t="shared" si="4"/>
-        <v>217.13313137087192</v>
+        <f t="shared" si="2"/>
+        <v>16.618615601129829</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86">
+        <f>B85*1.96</f>
+        <v>30.680989160823017</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86:L86" si="3">C85*1.96</f>
+        <v>37.832509197652527</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>32.392843598013421</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>66.623776827334723</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>70.337539272161848</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>78.568742720806299</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>63.741731023776296</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>54.19425442222979</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>47.615415383983468</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="3"/>
+        <v>36.185979993832952</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="3"/>
+        <v>32.572486578214466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <f>B83+B86</f>
+        <v>679.10996930670046</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ref="C87:L87" si="4">C83+C86</f>
+        <v>750.3124136346745</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>712.84728588946257</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>1486.0793274616162</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>1417.3126077123468</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>1521.482681661957</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="4"/>
+        <v>1318.8391413947654</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="4"/>
+        <v>720.71488057096531</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="4"/>
+        <v>622.2583834635227</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>108.66646218792988</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="4"/>
+        <v>220.38901514837633</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B86">
-        <f>B81-B84</f>
-        <v>608.64960234653506</v>
-      </c>
-      <c r="C86">
-        <f t="shared" ref="C86:L86" si="5">C81-C84</f>
-        <v>664.75902264434262</v>
-      </c>
-      <c r="D86">
+      <c r="B88">
+        <f>B83-B86</f>
+        <v>617.74799098505434</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ref="C88:L88" si="5">C83-C86</f>
+        <v>674.64739523936953</v>
+      </c>
+      <c r="D88">
         <f t="shared" si="5"/>
-        <v>638.86105146096531</v>
-      </c>
-      <c r="E86">
+        <v>648.06159869343571</v>
+      </c>
+      <c r="E88">
         <f t="shared" si="5"/>
-        <v>1336.9667381982829</v>
-      </c>
-      <c r="F86">
+        <v>1352.8317738069468</v>
+      </c>
+      <c r="F88">
         <f t="shared" si="5"/>
-        <v>1263.8949868628363</v>
-      </c>
-      <c r="G86">
+        <v>1276.6375291680231</v>
+      </c>
+      <c r="G88">
         <f t="shared" si="5"/>
-        <v>1334.9639984750122</v>
-      </c>
-      <c r="H86">
+        <v>1364.3451962203444</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="5"/>
-        <v>1171.7082656357961</v>
-      </c>
-      <c r="I86">
+        <v>1191.3556793472128</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="5"/>
-        <v>606.11138167281695</v>
-      </c>
-      <c r="J86">
+        <v>612.32637172650561</v>
+      </c>
+      <c r="J88">
         <f t="shared" si="5"/>
-        <v>513.96426405434102</v>
-      </c>
-      <c r="K86">
+        <v>527.02755269555587</v>
+      </c>
+      <c r="K88">
         <f t="shared" si="5"/>
-        <v>27.898131250846824</v>
-      </c>
-      <c r="L86">
+        <v>36.294502200263985</v>
+      </c>
+      <c r="L88">
         <f t="shared" si="5"/>
-        <v>143.11622429966354</v>
+        <v>155.2440419919474</v>
       </c>
     </row>
   </sheetData>
@@ -7568,10 +7799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E52E70-3B86-40E4-A5AC-F6553037D21C}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8831,194 +9062,156 @@
         <v>0.346869657950298</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>-0.60788243427314603</v>
-      </c>
-      <c r="C34">
-        <v>-0.45009473084017798</v>
-      </c>
-      <c r="D34">
-        <v>-0.52898858255666203</v>
-      </c>
-      <c r="E34">
-        <v>0.121868672809856</v>
-      </c>
-      <c r="F34">
-        <v>0.42288694231339802</v>
-      </c>
-      <c r="G34">
-        <v>0.38274691744148198</v>
-      </c>
-      <c r="H34">
-        <v>5.7490270623350402E-2</v>
-      </c>
-      <c r="I34">
-        <v>0.951875524870059</v>
-      </c>
-      <c r="J34">
-        <v>0.58647885318001203</v>
-      </c>
-      <c r="K34">
-        <v>-0.30101826950354199</v>
-      </c>
-      <c r="L34">
-        <v>0.32525664681813199</v>
-      </c>
-    </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>-0.78364660202349301</v>
+        <v>-0.60788243427314603</v>
       </c>
       <c r="C35">
-        <v>-0.74753289114002497</v>
+        <v>-0.45009473084017798</v>
       </c>
       <c r="D35">
-        <v>-0.76558974658175905</v>
+        <v>-0.52898858255666203</v>
       </c>
       <c r="E35">
-        <v>0.64166911894920597</v>
+        <v>0.121868672809856</v>
       </c>
       <c r="F35">
-        <v>0.52405967507618401</v>
+        <v>0.42288694231339802</v>
       </c>
       <c r="G35">
-        <v>0.55839531237448603</v>
+        <v>0.38274691744148198</v>
       </c>
       <c r="H35">
-        <v>0.19004760630016301</v>
+        <v>5.7490270623350402E-2</v>
       </c>
       <c r="I35">
-        <v>1.2896494216579399</v>
+        <v>0.951875524870059</v>
       </c>
       <c r="J35">
-        <v>0.95563735288192297</v>
+        <v>0.58647885318001203</v>
       </c>
       <c r="K35">
-        <v>0.117609443873021</v>
+        <v>-0.30101826950354199</v>
       </c>
       <c r="L35">
-        <v>0.36834770607432199</v>
+        <v>0.32525664681813199</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.75479367335358505</v>
+        <v>-0.78364660202349301</v>
       </c>
       <c r="C36">
-        <v>-0.72365634162180603</v>
+        <v>-0.74753289114002497</v>
       </c>
       <c r="D36">
-        <v>-0.73922500748769604</v>
+        <v>-0.76558974658175905</v>
       </c>
       <c r="E36">
-        <v>0.70850670786174996</v>
+        <v>0.64166911894920597</v>
       </c>
       <c r="F36">
-        <v>0.50694277143064204</v>
+        <v>0.52405967507618401</v>
       </c>
       <c r="G36">
-        <v>0.45134860762192502</v>
+        <v>0.55839531237448603</v>
       </c>
       <c r="H36">
-        <v>0.29954173729109002</v>
+        <v>0.19004760630016301</v>
       </c>
       <c r="I36">
-        <v>1.2461677789183401</v>
+        <v>1.2896494216579399</v>
       </c>
       <c r="J36">
-        <v>1.0387667447787901</v>
+        <v>0.95563735288192297</v>
       </c>
       <c r="K36">
-        <v>0.20156393643110701</v>
+        <v>0.117609443873021</v>
       </c>
       <c r="L36">
-        <v>0.15180687033083501</v>
+        <v>0.36834770607432199</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>-0.75928741962923996</v>
+        <v>-0.75479367335358505</v>
       </c>
       <c r="C37">
-        <v>-0.75221291268361101</v>
+        <v>-0.72365634162180603</v>
       </c>
       <c r="D37">
-        <v>-0.75575016615642499</v>
+        <v>-0.73922500748769604</v>
       </c>
       <c r="E37">
-        <v>0.41006199636350099</v>
+        <v>0.70850670786174996</v>
       </c>
       <c r="F37">
-        <v>0.30775311512259901</v>
+        <v>0.50694277143064204</v>
       </c>
       <c r="G37">
-        <v>0.57754862858521805</v>
+        <v>0.45134860762192502</v>
       </c>
       <c r="H37">
-        <v>0.60274599249274696</v>
+        <v>0.29954173729109002</v>
       </c>
       <c r="I37">
-        <v>1.0635032812790199</v>
+        <v>1.2461677789183401</v>
       </c>
       <c r="J37">
-        <v>1.3584961586491699</v>
+        <v>1.0387667447787901</v>
       </c>
       <c r="K37">
-        <v>0.102308881240903</v>
+        <v>0.20156393643110701</v>
       </c>
       <c r="L37">
-        <v>-2.5197363907529399E-2</v>
+        <v>0.15180687033083501</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.72819691150589505</v>
+        <v>-0.75928741962923996</v>
       </c>
       <c r="C38">
-        <v>-0.51838959699469001</v>
+        <v>-0.75221291268361101</v>
       </c>
       <c r="D38">
-        <v>-0.62329325425029203</v>
+        <v>-0.75575016615642499</v>
       </c>
       <c r="E38">
-        <v>0.90166465511275995</v>
+        <v>0.41006199636350099</v>
       </c>
       <c r="F38">
-        <v>0.54244666326704405</v>
+        <v>0.30775311512259901</v>
       </c>
       <c r="G38">
-        <v>0.38478912104417201</v>
+        <v>0.57754862858521805</v>
       </c>
       <c r="H38">
-        <v>-7.1220728463265498E-3</v>
+        <v>0.60274599249274696</v>
       </c>
       <c r="I38">
-        <v>1.16573991751734</v>
+        <v>1.0635032812790199</v>
       </c>
       <c r="J38">
-        <v>0.61617118140396598</v>
+        <v>1.3584961586491699</v>
       </c>
       <c r="K38">
-        <v>0.35921799184571601</v>
+        <v>0.102308881240903</v>
       </c>
       <c r="L38">
-        <v>0.391911193890498</v>
+        <v>-2.5197363907529399E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -9517,1322 +9710,1246 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>-0.71154210625731396</v>
+        <v>-0.48929753981100099</v>
       </c>
       <c r="C52">
-        <v>-0.40090565362799901</v>
+        <v>-0.39044467561101498</v>
       </c>
       <c r="D52">
-        <v>-0.55622387994265599</v>
+        <v>-0.43987110771100801</v>
       </c>
       <c r="E52">
-        <v>0.51794380290128705</v>
+        <v>0.59618642370861197</v>
       </c>
       <c r="F52">
-        <v>0.20245131677990399</v>
+        <v>-4.5737391867518601E-2</v>
       </c>
       <c r="G52">
-        <v>0.34831622732121198</v>
+        <v>0.32000276775741998</v>
       </c>
       <c r="H52">
-        <v>0.24995415297990001</v>
+        <v>1.8946929341849401E-2</v>
       </c>
       <c r="I52">
-        <v>0.75867519672256101</v>
+        <v>0.39413371584349</v>
       </c>
       <c r="J52">
-        <v>0.80617803292255696</v>
+        <v>0.45881803705285801</v>
       </c>
       <c r="K52">
-        <v>0.31549248612138198</v>
+        <v>0.64192381557612999</v>
       </c>
       <c r="L52">
-        <v>9.8362074341311695E-2</v>
+        <v>0.30105583841556999</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.48929753981100099</v>
+        <v>-0.701374398767456</v>
       </c>
       <c r="C53">
-        <v>-0.39044467561101498</v>
+        <v>-0.59519527039628894</v>
       </c>
       <c r="D53">
-        <v>-0.43987110771100801</v>
+        <v>-0.64828483458187203</v>
       </c>
       <c r="E53">
-        <v>0.59618642370861197</v>
+        <v>0.69012716370457705</v>
       </c>
       <c r="F53">
-        <v>-4.5737391867518601E-2</v>
+        <v>0.173865091756223</v>
       </c>
       <c r="G53">
-        <v>0.32000276775741998</v>
+        <v>0.475030461577714</v>
       </c>
       <c r="H53">
-        <v>1.8946929341849401E-2</v>
+        <v>0.349358229291654</v>
       </c>
       <c r="I53">
-        <v>0.39413371584349</v>
+        <v>0.82214992633809503</v>
       </c>
       <c r="J53">
-        <v>0.45881803705285801</v>
+        <v>0.99764306387352697</v>
       </c>
       <c r="K53">
-        <v>0.64192381557612999</v>
+        <v>0.51626207194835405</v>
       </c>
       <c r="L53">
-        <v>0.30105583841556999</v>
+        <v>0.12567223228606</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.701374398767456</v>
+        <v>-0.79224616846336304</v>
       </c>
       <c r="C54">
-        <v>-0.59519527039628894</v>
+        <v>-0.79236161024088902</v>
       </c>
       <c r="D54">
-        <v>-0.64828483458187203</v>
+        <v>-0.79230388935212603</v>
       </c>
       <c r="E54">
-        <v>0.69012716370457705</v>
+        <v>0.67708674318296302</v>
       </c>
       <c r="F54">
-        <v>0.173865091756223</v>
+        <v>0.38743329802890197</v>
       </c>
       <c r="G54">
-        <v>0.475030461577714</v>
+        <v>0.68925233917399897</v>
       </c>
       <c r="H54">
-        <v>0.349358229291654</v>
+        <v>0.44321560423329098</v>
       </c>
       <c r="I54">
-        <v>0.82214992633809503</v>
+        <v>1.1797371873810301</v>
       </c>
       <c r="J54">
-        <v>0.99764306387352697</v>
+        <v>1.2355194935854199</v>
       </c>
       <c r="K54">
-        <v>0.51626207194835405</v>
+        <v>0.289653445154061</v>
       </c>
       <c r="L54">
-        <v>0.12567223228606</v>
+        <v>0.24603673494070899</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.75360236737636699</v>
+        <v>-0.68298047552959895</v>
       </c>
       <c r="C55">
-        <v>-0.68032283530822701</v>
+        <v>-0.648060153703928</v>
       </c>
       <c r="D55">
-        <v>-0.71696260134229695</v>
+        <v>-0.66552031461676298</v>
       </c>
       <c r="E55">
-        <v>0.78430245895055595</v>
+        <v>0.39124531793312101</v>
       </c>
       <c r="F55">
-        <v>0.34111743618135298</v>
+        <v>0.43551743892765499</v>
       </c>
       <c r="G55">
-        <v>0.70705327340343405</v>
+        <v>0.52722402276381597</v>
       </c>
       <c r="H55">
-        <v>0.40457712964411002</v>
+        <v>0.43536368204063203</v>
       </c>
       <c r="I55">
-        <v>1.0580800375236501</v>
+        <v>1.10103775354442</v>
       </c>
       <c r="J55">
-        <v>1.1215397309864099</v>
+        <v>1.1008839966574</v>
       </c>
       <c r="K55">
-        <v>0.44318502276920302</v>
+        <v>-4.4272120994533599E-2</v>
       </c>
       <c r="L55">
-        <v>0.30247614375932402</v>
+        <v>9.1860340723183206E-2</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.79224616846336304</v>
+        <v>-0.64812465384338802</v>
       </c>
       <c r="C56">
-        <v>-0.79236161024088902</v>
+        <v>-0.54367687072192195</v>
       </c>
       <c r="D56">
-        <v>-0.79230388935212603</v>
+        <v>-0.59590076228265498</v>
       </c>
       <c r="E56">
-        <v>0.67708674318296302</v>
+        <v>0.46829706713050501</v>
       </c>
       <c r="F56">
-        <v>0.38743329802890197</v>
+        <v>0.40001417430082697</v>
       </c>
       <c r="G56">
-        <v>0.68925233917399897</v>
+        <v>0.314858825243508</v>
       </c>
       <c r="H56">
-        <v>0.44321560423329098</v>
+        <v>3.2085787442643003E-2</v>
       </c>
       <c r="I56">
-        <v>1.1797371873810301</v>
+        <v>0.99591493658348196</v>
       </c>
       <c r="J56">
-        <v>1.2355194935854199</v>
+        <v>0.62798654972529799</v>
       </c>
       <c r="K56">
-        <v>0.289653445154061</v>
+        <v>6.8282892829678102E-2</v>
       </c>
       <c r="L56">
-        <v>0.24603673494070899</v>
+        <v>0.28277303780086499</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.68298047552959895</v>
+        <v>-0.74123475146041695</v>
       </c>
       <c r="C57">
-        <v>-0.648060153703928</v>
+        <v>-0.28544983290446302</v>
       </c>
       <c r="D57">
-        <v>-0.66552031461676298</v>
+        <v>-0.51334229218243999</v>
       </c>
       <c r="E57">
-        <v>0.39124531793312101</v>
+        <v>0.31374893412617999</v>
       </c>
       <c r="F57">
-        <v>0.43551743892765499</v>
+        <v>0.32276022786645597</v>
       </c>
       <c r="G57">
-        <v>0.52722402276381597</v>
+        <v>0.35432174347825002</v>
       </c>
       <c r="H57">
-        <v>0.43536368204063203</v>
+        <v>0.120587248421546</v>
       </c>
       <c r="I57">
-        <v>1.10103775354442</v>
+        <v>0.83610252004889596</v>
       </c>
       <c r="J57">
-        <v>1.1008839966574</v>
+        <v>0.63392954060398599</v>
       </c>
       <c r="K57">
-        <v>-4.4272120994533599E-2</v>
+        <v>-9.0112937402755892E-3</v>
       </c>
       <c r="L57">
-        <v>9.1860340723183206E-2</v>
+        <v>0.23373449505670399</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.64812465384338802</v>
+        <v>-0.70189493175070194</v>
       </c>
       <c r="C58">
-        <v>-0.54367687072192195</v>
+        <v>-0.75270275975243905</v>
       </c>
       <c r="D58">
-        <v>-0.59590076228265498</v>
+        <v>-0.727298845751571</v>
       </c>
       <c r="E58">
-        <v>0.46829706713050501</v>
+        <v>0.73482982611578396</v>
       </c>
       <c r="F58">
-        <v>0.40001417430082697</v>
+        <v>0.64397568069785605</v>
       </c>
       <c r="G58">
-        <v>0.314858825243508</v>
+        <v>0.46909552969922402</v>
       </c>
       <c r="H58">
-        <v>3.2085787442643003E-2</v>
+        <v>8.0986429557908801E-3</v>
       </c>
       <c r="I58">
-        <v>0.99591493658348196</v>
+        <v>1.3712745264494299</v>
       </c>
       <c r="J58">
-        <v>0.62798654972529799</v>
+        <v>0.73539748870736199</v>
       </c>
       <c r="K58">
-        <v>6.8282892829678102E-2</v>
+        <v>9.0854145417927801E-2</v>
       </c>
       <c r="L58">
-        <v>0.28277303780086499</v>
+        <v>0.46099688674343298</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.74123475146041695</v>
+        <v>-0.82805602183496196</v>
       </c>
       <c r="C59">
-        <v>-0.28544983290446302</v>
+        <v>-0.68951443966953396</v>
       </c>
       <c r="D59">
-        <v>-0.51334229218243999</v>
+        <v>-0.75878523075224802</v>
       </c>
       <c r="E59">
-        <v>0.31374893412617999</v>
+        <v>0.42724151269852001</v>
       </c>
       <c r="F59">
-        <v>0.32276022786645597</v>
+        <v>0.50751877289522496</v>
       </c>
       <c r="G59">
-        <v>0.35432174347825002</v>
+        <v>0.958741032470254</v>
       </c>
       <c r="H59">
-        <v>0.120587248421546</v>
+        <v>0.31929647300184699</v>
       </c>
       <c r="I59">
-        <v>0.83610252004889596</v>
+        <v>1.26630400364747</v>
       </c>
       <c r="J59">
-        <v>0.63392954060398599</v>
+        <v>1.0780817037541</v>
       </c>
       <c r="K59">
-        <v>-9.0112937402755892E-3</v>
+        <v>-8.0277260196704905E-2</v>
       </c>
       <c r="L59">
-        <v>0.23373449505670399</v>
+        <v>0.63944455946840695</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.70189493175070194</v>
+        <v>-0.84753277637841795</v>
       </c>
       <c r="C60">
-        <v>-0.75270275975243905</v>
+        <v>-0.70067855994172001</v>
       </c>
       <c r="D60">
-        <v>-0.727298845751571</v>
+        <v>-0.77410566816006898</v>
       </c>
       <c r="E60">
-        <v>0.73482982611578396</v>
+        <v>0.701167197104</v>
       </c>
       <c r="F60">
-        <v>0.64397568069785605</v>
+        <v>0.59021379385708705</v>
       </c>
       <c r="G60">
-        <v>0.46909552969922402</v>
+        <v>0.53959497271970602</v>
       </c>
       <c r="H60">
-        <v>8.0986429557908801E-3</v>
+        <v>0.18261046977961501</v>
       </c>
       <c r="I60">
-        <v>1.3712745264494299</v>
+        <v>1.3643194620171599</v>
       </c>
       <c r="J60">
-        <v>0.73539748870736199</v>
+        <v>0.95671613793968402</v>
       </c>
       <c r="K60">
-        <v>9.0854145417927801E-2</v>
+        <v>0.110953403246912</v>
       </c>
       <c r="L60">
-        <v>0.46099688674343298</v>
+        <v>0.35698450294009099</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.82805602183496196</v>
+        <v>-0.82546608145177203</v>
       </c>
       <c r="C61">
-        <v>-0.68951443966953396</v>
+        <v>-0.80878405366003803</v>
       </c>
       <c r="D61">
-        <v>-0.75878523075224802</v>
+        <v>-0.81712506755590497</v>
       </c>
       <c r="E61">
-        <v>0.42724151269852001</v>
+        <v>0.81460161425157895</v>
       </c>
       <c r="F61">
-        <v>0.50751877289522496</v>
+        <v>0.70583971228885001</v>
       </c>
       <c r="G61">
-        <v>0.958741032470254</v>
+        <v>0.45142481490679898</v>
       </c>
       <c r="H61">
-        <v>0.31929647300184699</v>
+        <v>0.47882056450442101</v>
       </c>
       <c r="I61">
-        <v>1.26630400364747</v>
+        <v>1.5229647798447501</v>
       </c>
       <c r="J61">
-        <v>1.0780817037541</v>
+        <v>1.29594563206033</v>
       </c>
       <c r="K61">
-        <v>-8.0277260196704905E-2</v>
+        <v>0.10876190196273</v>
       </c>
       <c r="L61">
-        <v>0.63944455946840695</v>
+        <v>-2.7395749597622001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.84753277637841795</v>
+        <v>-0.62614660447663095</v>
       </c>
       <c r="C62">
-        <v>-0.70067855994172001</v>
+        <v>-0.54269072239856297</v>
       </c>
       <c r="D62">
-        <v>-0.77410566816006898</v>
+        <v>-0.58441866343759696</v>
       </c>
       <c r="E62">
-        <v>0.701167197104</v>
+        <v>0.56712286492140696</v>
       </c>
       <c r="F62">
-        <v>0.59021379385708705</v>
+        <v>-4.6806465235120803E-2</v>
       </c>
       <c r="G62">
-        <v>0.53959497271970602</v>
+        <v>0.80762912518976504</v>
       </c>
       <c r="H62">
-        <v>0.18261046977961501</v>
+        <v>8.6754127148810298E-2</v>
       </c>
       <c r="I62">
-        <v>1.3643194620171599</v>
+        <v>0.53761219820247597</v>
       </c>
       <c r="J62">
-        <v>0.95671613793968402</v>
+        <v>0.671172790586407</v>
       </c>
       <c r="K62">
-        <v>0.110953403246912</v>
+        <v>0.61392933015652795</v>
       </c>
       <c r="L62">
-        <v>0.35698450294009099</v>
+        <v>0.72087499804095401</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.82546608145177203</v>
+        <v>-0.337956274729592</v>
       </c>
       <c r="C63">
-        <v>-0.80878405366003803</v>
+        <v>-0.21157972745614001</v>
       </c>
       <c r="D63">
-        <v>-0.81712506755590497</v>
+        <v>-0.27476800109286598</v>
       </c>
       <c r="E63">
-        <v>0.81460161425157895</v>
+        <v>0.13456164831291501</v>
       </c>
       <c r="F63">
-        <v>0.70583971228885001</v>
+        <v>-7.5365076059181899E-2</v>
       </c>
       <c r="G63">
-        <v>0.45142481490679898</v>
+        <v>0.31703895134051002</v>
       </c>
       <c r="H63">
-        <v>0.47882056450442101</v>
+        <v>4.5076666420418701E-2</v>
       </c>
       <c r="I63">
-        <v>1.5229647798447501</v>
+        <v>0.19940292503368401</v>
       </c>
       <c r="J63">
-        <v>1.29594563206033</v>
+        <v>0.319844667513284</v>
       </c>
       <c r="K63">
-        <v>0.10876190196273</v>
+        <v>0.209926724372097</v>
       </c>
       <c r="L63">
-        <v>-2.7395749597622001E-2</v>
+        <v>0.271962284920092</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.62614660447663095</v>
+        <v>-0.74494753487330501</v>
       </c>
       <c r="C64">
-        <v>-0.54269072239856297</v>
+        <v>-0.67957540825403695</v>
       </c>
       <c r="D64">
-        <v>-0.58441866343759696</v>
+        <v>-0.71226147156367103</v>
       </c>
       <c r="E64">
-        <v>0.56712286492140696</v>
+        <v>0.51369599657369502</v>
       </c>
       <c r="F64">
-        <v>-4.6806465235120803E-2</v>
+        <v>0.44419250092518803</v>
       </c>
       <c r="G64">
-        <v>0.80762912518976504</v>
+        <v>0.66342620385465001</v>
       </c>
       <c r="H64">
-        <v>8.6754127148810298E-2</v>
+        <v>0.269785604725856</v>
       </c>
       <c r="I64">
-        <v>0.53761219820247597</v>
+        <v>1.1564539724888601</v>
       </c>
       <c r="J64">
-        <v>0.671172790586407</v>
+        <v>0.98204707628952703</v>
       </c>
       <c r="K64">
-        <v>0.61392933015652795</v>
+        <v>6.9503495648506303E-2</v>
       </c>
       <c r="L64">
-        <v>0.72087499804095401</v>
+        <v>0.39364059912879401</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.337956274729592</v>
+        <v>-0.92098250937635795</v>
       </c>
       <c r="C65">
-        <v>-0.21157972745614001</v>
+        <v>-0.49101787995545698</v>
       </c>
       <c r="D65">
-        <v>-0.27476800109286598</v>
+        <v>-0.70600019466590802</v>
       </c>
       <c r="E65">
-        <v>0.13456164831291501</v>
+        <v>0.54514465743110596</v>
       </c>
       <c r="F65">
-        <v>-7.5365076059181899E-2</v>
+        <v>0.876025468905274</v>
       </c>
       <c r="G65">
-        <v>0.31703895134051002</v>
+        <v>0.40346925335629802</v>
       </c>
       <c r="H65">
-        <v>4.5076666420418701E-2</v>
+        <v>0.23202532941902501</v>
       </c>
       <c r="I65">
-        <v>0.19940292503368401</v>
+        <v>1.58202566357118</v>
       </c>
       <c r="J65">
-        <v>0.319844667513284</v>
+        <v>0.938025524084933</v>
       </c>
       <c r="K65">
-        <v>0.209926724372097</v>
+        <v>-0.33088081147416898</v>
       </c>
       <c r="L65">
-        <v>0.271962284920092</v>
+        <v>0.17144392393727401</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.74494753487330501</v>
+        <v>-0.700650369597139</v>
       </c>
       <c r="C66">
-        <v>-0.67957540825403695</v>
+        <v>-0.59661577360752804</v>
       </c>
       <c r="D66">
-        <v>-0.71226147156367103</v>
+        <v>-0.64863307160233297</v>
       </c>
       <c r="E66">
-        <v>0.51369599657369502</v>
+        <v>0.41669620831420301</v>
       </c>
       <c r="F66">
-        <v>0.44419250092518803</v>
+        <v>0.26479866598798402</v>
       </c>
       <c r="G66">
-        <v>0.66342620385465001</v>
+        <v>0.52106515731641101</v>
       </c>
       <c r="H66">
-        <v>0.269785604725856</v>
+        <v>0.14623729222408699</v>
       </c>
       <c r="I66">
-        <v>1.1564539724888601</v>
+        <v>0.91343173759031704</v>
       </c>
       <c r="J66">
-        <v>0.98204707628952703</v>
+        <v>0.79487036382641996</v>
       </c>
       <c r="K66">
-        <v>6.9503495648506303E-2</v>
+        <v>0.15189754232621899</v>
       </c>
       <c r="L66">
-        <v>0.39364059912879401</v>
+        <v>0.37482786509232402</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.92098250937635795</v>
+        <v>-0.30924432260453599</v>
       </c>
       <c r="C67">
-        <v>-0.49101787995545698</v>
+        <v>-0.24754139816093701</v>
       </c>
       <c r="D67">
-        <v>-0.70600019466590802</v>
+        <v>-0.27839286038273597</v>
       </c>
       <c r="E67">
-        <v>0.54514465743110596</v>
+        <v>0.16156936158823401</v>
       </c>
       <c r="F67">
-        <v>0.876025468905274</v>
+        <v>8.5224419674752999E-2</v>
       </c>
       <c r="G67">
-        <v>0.40346925335629802</v>
+        <v>3.77125685391832E-2</v>
       </c>
       <c r="H67">
-        <v>0.23202532941902501</v>
+        <v>2.72399569385529E-3</v>
       </c>
       <c r="I67">
-        <v>1.58202566357118</v>
+        <v>0.36361728005749</v>
       </c>
       <c r="J67">
-        <v>0.938025524084933</v>
+        <v>0.28111685607659198</v>
       </c>
       <c r="K67">
-        <v>-0.33088081147416898</v>
+        <v>7.6344941913480596E-2</v>
       </c>
       <c r="L67">
-        <v>0.17144392393727401</v>
+        <v>3.49885728453279E-2</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.700650369597139</v>
+        <v>-0.30328337393448201</v>
       </c>
       <c r="C68">
-        <v>-0.59661577360752804</v>
+        <v>-0.513797925284465</v>
       </c>
       <c r="D68">
-        <v>-0.64863307160233297</v>
+        <v>-0.408540649609474</v>
       </c>
       <c r="E68">
-        <v>0.41669620831420301</v>
+        <v>-3.0446043410817102E-2</v>
       </c>
       <c r="F68">
-        <v>0.26479866598798402</v>
+        <v>0.14004782329641499</v>
       </c>
       <c r="G68">
-        <v>0.52106515731641101</v>
+        <v>0.13972226279018901</v>
       </c>
       <c r="H68">
-        <v>0.14623729222408699</v>
+        <v>0.10214881833918101</v>
       </c>
       <c r="I68">
-        <v>0.91343173759031704</v>
+        <v>0.54858847290588897</v>
       </c>
       <c r="J68">
-        <v>0.79487036382641996</v>
+        <v>0.510689467948655</v>
       </c>
       <c r="K68">
-        <v>0.15189754232621899</v>
+        <v>-0.17049386670723199</v>
       </c>
       <c r="L68">
-        <v>0.37482786509232402</v>
+        <v>3.7573444451007902E-2</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.30924432260453599</v>
+        <v>-0.66049431892494004</v>
       </c>
       <c r="C69">
-        <v>-0.24754139816093701</v>
+        <v>-0.59136007823676495</v>
       </c>
       <c r="D69">
-        <v>-0.27839286038273597</v>
+        <v>-0.625927198580852</v>
       </c>
       <c r="E69">
-        <v>0.16156936158823401</v>
+        <v>0.36280743300377499</v>
       </c>
       <c r="F69">
-        <v>8.5224419674752999E-2</v>
+        <v>0.34049990893612903</v>
       </c>
       <c r="G69">
-        <v>3.77125685391832E-2</v>
+        <v>0.41103099287813799</v>
       </c>
       <c r="H69">
-        <v>2.72399569385529E-3</v>
+        <v>7.3819487767981806E-2</v>
       </c>
       <c r="I69">
-        <v>0.36361728005749</v>
+        <v>0.96642710751698102</v>
       </c>
       <c r="J69">
-        <v>0.28111685607659198</v>
+        <v>0.69974668634883397</v>
       </c>
       <c r="K69">
-        <v>7.6344941913480596E-2</v>
+        <v>2.2307524067645901E-2</v>
       </c>
       <c r="L69">
-        <v>3.49885728453279E-2</v>
+        <v>0.33721150511015602</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.30328337393448201</v>
+        <v>-0.56466435454317698</v>
       </c>
       <c r="C70">
-        <v>-0.513797925284465</v>
+        <v>-0.54677996864720302</v>
       </c>
       <c r="D70">
-        <v>-0.408540649609474</v>
+        <v>-0.55572216159518995</v>
       </c>
       <c r="E70">
-        <v>-3.0446043410817102E-2</v>
+        <v>0.43351095721689897</v>
       </c>
       <c r="F70">
-        <v>0.14004782329641499</v>
+        <v>-5.8618619413351697E-2</v>
       </c>
       <c r="G70">
-        <v>0.13972226279018901</v>
+        <v>0.651284407999557</v>
       </c>
       <c r="H70">
-        <v>0.10214881833918101</v>
+        <v>0.216009814060862</v>
       </c>
       <c r="I70">
-        <v>0.54858847290588897</v>
+        <v>0.497103542181838</v>
       </c>
       <c r="J70">
-        <v>0.510689467948655</v>
+        <v>0.771731975656052</v>
       </c>
       <c r="K70">
-        <v>-0.17049386670723199</v>
+        <v>0.49212957663025098</v>
       </c>
       <c r="L70">
-        <v>3.7573444451007902E-2</v>
+        <v>0.435274593938695</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.66049431892494004</v>
+        <v>-0.60258276143784495</v>
       </c>
       <c r="C71">
-        <v>-0.59136007823676495</v>
+        <v>-0.50086309723066802</v>
       </c>
       <c r="D71">
-        <v>-0.625927198580852</v>
+        <v>-0.55172292933425704</v>
       </c>
       <c r="E71">
-        <v>0.36280743300377499</v>
+        <v>0.21568044934094699</v>
       </c>
       <c r="F71">
-        <v>0.34049990893612903</v>
+        <v>0.354677700039981</v>
       </c>
       <c r="G71">
-        <v>0.41103099287813799</v>
+        <v>0.38871714342083002</v>
       </c>
       <c r="H71">
-        <v>7.3819487767981806E-2</v>
+        <v>0.107059384340535</v>
       </c>
       <c r="I71">
-        <v>0.96642710751698102</v>
+        <v>0.90640062937423804</v>
       </c>
       <c r="J71">
-        <v>0.69974668634883397</v>
+        <v>0.65878231367479201</v>
       </c>
       <c r="K71">
-        <v>2.2307524067645901E-2</v>
+        <v>-0.13899725069903399</v>
       </c>
       <c r="L71">
-        <v>0.33721150511015602</v>
+        <v>0.281657759080295</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.56466435454317698</v>
+        <v>-0.58890478891791997</v>
       </c>
       <c r="C72">
-        <v>-0.54677996864720302</v>
+        <v>-0.57225626811998698</v>
       </c>
       <c r="D72">
-        <v>-0.55572216159518995</v>
+        <v>-0.58058052851895303</v>
       </c>
       <c r="E72">
-        <v>0.43351095721689897</v>
+        <v>0.58966396417764599</v>
       </c>
       <c r="F72">
-        <v>-5.8618619413351697E-2</v>
+        <v>0.404075426428264</v>
       </c>
       <c r="G72">
-        <v>0.651284407999557</v>
+        <v>0.39338918448162102</v>
       </c>
       <c r="H72">
-        <v>0.216009814060862</v>
+        <v>2.6523239692562001E-2</v>
       </c>
       <c r="I72">
-        <v>0.497103542181838</v>
+        <v>0.98465595494721703</v>
       </c>
       <c r="J72">
-        <v>0.771731975656052</v>
+        <v>0.60710376821151502</v>
       </c>
       <c r="K72">
-        <v>0.49212957663025098</v>
+        <v>0.185588537749383</v>
       </c>
       <c r="L72">
-        <v>0.435274593938695</v>
+        <v>0.36686594478905998</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.60258276143784495</v>
+        <v>-0.778689667119152</v>
       </c>
       <c r="C73">
-        <v>-0.50086309723066802</v>
+        <v>-0.56423740452274795</v>
       </c>
       <c r="D73">
-        <v>-0.55172292933425704</v>
+        <v>-0.67146353582094997</v>
       </c>
       <c r="E73">
-        <v>0.21568044934094699</v>
+        <v>0.62677481909009403</v>
       </c>
       <c r="F73">
-        <v>0.354677700039981</v>
+        <v>0.118487576074395</v>
       </c>
       <c r="G73">
-        <v>0.38871714342083002</v>
+        <v>0.93173619580996703</v>
       </c>
       <c r="H73">
-        <v>0.107059384340535</v>
+        <v>0.14581561225165099</v>
       </c>
       <c r="I73">
-        <v>0.90640062937423804</v>
+        <v>0.78995111189534495</v>
       </c>
       <c r="J73">
-        <v>0.65878231367479201</v>
+        <v>0.81727914807260105</v>
       </c>
       <c r="K73">
-        <v>-0.13899725069903399</v>
+        <v>0.50828724301570005</v>
       </c>
       <c r="L73">
-        <v>0.281657759080295</v>
+        <v>0.78592058355831595</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.58890478891791997</v>
+        <v>-0.77839756876551003</v>
       </c>
       <c r="C74">
-        <v>-0.57225626811998698</v>
+        <v>-0.70430860456607702</v>
       </c>
       <c r="D74">
-        <v>-0.58058052851895303</v>
+        <v>-0.74135308666579403</v>
       </c>
       <c r="E74">
-        <v>0.58966396417764599</v>
+        <v>0.68654903314281002</v>
       </c>
       <c r="F74">
-        <v>0.404075426428264</v>
+        <v>0.66573205071503705</v>
       </c>
       <c r="G74">
-        <v>0.39338918448162102</v>
+        <v>0.53922400469033005</v>
       </c>
       <c r="H74">
-        <v>2.6523239692562001E-2</v>
+        <v>0.21297601862732399</v>
       </c>
       <c r="I74">
-        <v>0.98465595494721703</v>
+        <v>1.40708513738083</v>
       </c>
       <c r="J74">
-        <v>0.60710376821151502</v>
+        <v>0.95432910529311799</v>
       </c>
       <c r="K74">
-        <v>0.185588537749383</v>
+        <v>2.08169824277732E-2</v>
       </c>
       <c r="L74">
-        <v>0.36686594478905998</v>
+        <v>0.32624798606300598</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.778689667119152</v>
+        <v>-0.54909106674156904</v>
       </c>
       <c r="C75">
-        <v>-0.56423740452274795</v>
+        <v>-0.58231029251990096</v>
       </c>
       <c r="D75">
-        <v>-0.67146353582094997</v>
+        <v>-0.565700679630735</v>
       </c>
       <c r="E75">
-        <v>0.62677481909009403</v>
+        <v>0.34570016008864202</v>
       </c>
       <c r="F75">
-        <v>0.118487576074395</v>
+        <v>-3.5121359359066399E-2</v>
       </c>
       <c r="G75">
-        <v>0.93173619580996703</v>
+        <v>0.71306858953325003</v>
       </c>
       <c r="H75">
-        <v>0.14581561225165099</v>
+        <v>0.20383983838665501</v>
       </c>
       <c r="I75">
-        <v>0.78995111189534495</v>
+        <v>0.53057932027166899</v>
       </c>
       <c r="J75">
-        <v>0.81727914807260105</v>
+        <v>0.76954051801739098</v>
       </c>
       <c r="K75">
-        <v>0.50828724301570005</v>
+        <v>0.38082151944770798</v>
       </c>
       <c r="L75">
-        <v>0.78592058355831595</v>
+        <v>0.50922875114659505</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.77839756876551003</v>
+        <v>-0.69498131803354002</v>
       </c>
       <c r="C76">
-        <v>-0.70430860456607702</v>
+        <v>-0.45404104849383498</v>
       </c>
       <c r="D76">
-        <v>-0.74135308666579403</v>
+        <v>-0.574511183263688</v>
       </c>
       <c r="E76">
-        <v>0.68654903314281002</v>
+        <v>0.53597982553041601</v>
       </c>
       <c r="F76">
-        <v>0.66573205071503705</v>
+        <v>0.56854585404354696</v>
       </c>
       <c r="G76">
-        <v>0.53922400469033005</v>
+        <v>0.196396855585208</v>
       </c>
       <c r="H76">
-        <v>0.21297601862732399</v>
+        <v>-7.5626560935385598E-2</v>
       </c>
       <c r="I76">
-        <v>1.40708513738083</v>
+        <v>1.14305703730723</v>
       </c>
       <c r="J76">
-        <v>0.95432910529311799</v>
+        <v>0.498884622328302</v>
       </c>
       <c r="K76">
-        <v>2.08169824277732E-2</v>
+        <v>-3.2566028513131201E-2</v>
       </c>
       <c r="L76">
-        <v>0.32624798606300598</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>84</v>
-      </c>
-      <c r="B77">
-        <v>-0.54909106674156904</v>
-      </c>
-      <c r="C77">
-        <v>-0.58231029251990096</v>
-      </c>
-      <c r="D77">
-        <v>-0.565700679630735</v>
-      </c>
-      <c r="E77">
-        <v>0.34570016008864202</v>
-      </c>
-      <c r="F77">
-        <v>-3.5121359359066399E-2</v>
-      </c>
-      <c r="G77">
-        <v>0.71306858953325003</v>
-      </c>
-      <c r="H77">
-        <v>0.20383983838665501</v>
-      </c>
-      <c r="I77">
-        <v>0.53057932027166899</v>
-      </c>
-      <c r="J77">
-        <v>0.76954051801739098</v>
-      </c>
-      <c r="K77">
-        <v>0.38082151944770798</v>
-      </c>
-      <c r="L77">
-        <v>0.50922875114659505</v>
+        <v>0.27202341652059298</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>85</v>
+      <c r="A78" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>-0.69498131803354002</v>
+        <f>AVERAGE(B1:B76)</f>
+        <v>-0.64498199979168269</v>
       </c>
       <c r="C78">
-        <v>-0.45404104849383498</v>
+        <f>AVERAGE(C1:C76)</f>
+        <v>-0.55565747846290203</v>
       </c>
       <c r="D78">
-        <v>-0.574511183263688</v>
+        <f>AVERAGE(D1:D76)</f>
+        <v>-0.60031973912729231</v>
       </c>
       <c r="E78">
-        <v>0.53597982553041601</v>
+        <f>AVERAGE(E1:E76)</f>
+        <v>0.43756104540243879</v>
       </c>
       <c r="F78">
-        <v>0.56854585404354696</v>
+        <f>AVERAGE(F1:F76)</f>
+        <v>0.32129597611633176</v>
       </c>
       <c r="G78">
-        <v>0.196396855585208</v>
+        <f>AVERAGE(G1:G76)</f>
+        <v>0.45619230162818208</v>
       </c>
       <c r="H78">
-        <v>-7.5626560935385598E-2</v>
+        <f>AVERAGE(H1:H76)</f>
+        <v>0.19915612866182525</v>
       </c>
       <c r="I78">
-        <v>1.14305703730723</v>
+        <f>AVERAGE(I1:I76)</f>
+        <v>0.92161571524362351</v>
       </c>
       <c r="J78">
-        <v>0.498884622328302</v>
+        <f>AVERAGE(J1:J76)</f>
+        <v>0.79947586778911772</v>
       </c>
       <c r="K78">
-        <v>-3.2566028513131201E-2</v>
+        <f>AVERAGE(K1:K76)</f>
+        <v>0.11626506928610694</v>
       </c>
       <c r="L78">
-        <v>0.27202341652059298</v>
+        <f>AVERAGE(L1:L76)</f>
+        <v>0.25703617296635672</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <f>STDEV(B1:B76)</f>
+        <v>0.14615612118341029</v>
+      </c>
+      <c r="C79">
+        <f>STDEV(C1:C76)</f>
+        <v>0.15522150065066256</v>
+      </c>
+      <c r="D79">
+        <f>STDEV(D1:D76)</f>
+        <v>0.13742431556572313</v>
+      </c>
+      <c r="E79">
+        <f>STDEV(E1:E76)</f>
+        <v>0.19706219192957009</v>
+      </c>
+      <c r="F79">
+        <f>STDEV(F1:F76)</f>
+        <v>0.22093329045644569</v>
+      </c>
+      <c r="G79">
+        <f>STDEV(G1:G76)</f>
+        <v>0.23576927211226642</v>
+      </c>
+      <c r="H79">
+        <f>STDEV(H1:H76)</f>
+        <v>0.1697485109571879</v>
+      </c>
+      <c r="I79">
+        <f>STDEV(I1:I76)</f>
+        <v>0.31989454401437029</v>
+      </c>
+      <c r="J79">
+        <f>STDEV(J1:J76)</f>
+        <v>0.27676700681818317</v>
+      </c>
+      <c r="K79">
+        <f>STDEV(K1:K76)</f>
+        <v>0.21334513429380778</v>
+      </c>
+      <c r="L79">
+        <f>STDEV(L1:L76)</f>
+        <v>0.19629297496194581</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B80">
-        <f>AVERAGE(B1:B78)</f>
-        <v>-0.64833778402239062</v>
+        <f>B79/(SQRT(59))</f>
+        <v>1.902790625004951E-2</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:L80" si="0">AVERAGE(C1:C78)</f>
-        <v>-0.55478274665176197</v>
+        <f t="shared" ref="C80:L80" si="0">C79/(SQRT(59))</f>
+        <v>2.0208118130519002E-2</v>
       </c>
       <c r="D80">
         <f t="shared" si="0"/>
-        <v>-0.60156026533707641</v>
+        <v>1.7891121985786577E-2</v>
       </c>
       <c r="E80">
         <f t="shared" si="0"/>
-        <v>0.44913543216552043</v>
+        <v>2.5655312162804828E-2</v>
       </c>
       <c r="F80">
         <f t="shared" si="0"/>
-        <v>0.32288204738749154</v>
+        <v>2.8763064483934713E-2</v>
       </c>
       <c r="G80">
         <f t="shared" si="0"/>
-        <v>0.45712193431499076</v>
+        <v>3.0694544779037495E-2</v>
       </c>
       <c r="H80">
         <f t="shared" si="0"/>
-        <v>0.19980471078899675</v>
+        <v>2.2099373782132743E-2</v>
       </c>
       <c r="I80">
         <f t="shared" si="0"/>
-        <v>0.92444231272456734</v>
+        <v>4.1646722313938095E-2</v>
       </c>
       <c r="J80">
         <f t="shared" si="0"/>
-        <v>0.80136497612607349</v>
+        <v>3.6031995213081522E-2</v>
       </c>
       <c r="K80">
         <f t="shared" si="0"/>
-        <v>0.1262533847780288</v>
+        <v>2.7775170696768454E-2</v>
       </c>
       <c r="L80">
         <f t="shared" si="0"/>
-        <v>0.25731722352599395</v>
+        <v>2.5555168643481851E-2</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B81">
-        <f>STDEV(B1:B78)</f>
-        <v>0.14426236573981496</v>
+        <f>B80*1.96</f>
+        <v>3.7294696250097036E-2</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:L81" si="1">STDEV(C1:C78)</f>
-        <v>0.1538822472650471</v>
+        <f t="shared" ref="C81:L81" si="1">C80*1.96</f>
+        <v>3.9607911535817247E-2</v>
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
-        <v>0.13546200632267755</v>
+        <v>3.5066599092141687E-2</v>
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>0.20412244092960172</v>
+        <v>5.0284411839097459E-2</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
-        <v>0.21844160190302037</v>
+        <v>5.6375606388512037E-2</v>
       </c>
       <c r="G81">
         <f t="shared" si="1"/>
-        <v>0.23332443727179061</v>
+        <v>6.0161307766913488E-2</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>0.16978156212198611</v>
+        <v>4.3314772612980175E-2</v>
       </c>
       <c r="I81">
         <f t="shared" si="1"/>
-        <v>0.31569529477436731</v>
+        <v>8.1627575735318661E-2</v>
       </c>
       <c r="J81">
         <f t="shared" si="1"/>
-        <v>0.27455452242098705</v>
+        <v>7.0622710617639778E-2</v>
       </c>
       <c r="K81">
         <f t="shared" si="1"/>
-        <v>0.21522910093768741</v>
+        <v>5.4439334565666166E-2</v>
       </c>
       <c r="L81">
         <f t="shared" si="1"/>
-        <v>0.19392705787639924</v>
+        <v>5.0088130541224428E-2</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B82">
-        <f>B81/(SQRT(59))</f>
-        <v>1.8781360291183827E-2</v>
+        <f>B78+B81</f>
+        <v>-0.60768730354158562</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:L82" si="2">C81/(SQRT(59))</f>
-        <v>2.0033762190718344E-2</v>
+        <f t="shared" ref="C82:L82" si="2">C78+C81</f>
+        <v>-0.51604956692708481</v>
       </c>
       <c r="D82">
         <f t="shared" si="2"/>
-        <v>1.763565108242687E-2</v>
+        <v>-0.56525314003515059</v>
       </c>
       <c r="E82">
         <f t="shared" si="2"/>
-        <v>2.6574478291372397E-2</v>
+        <v>0.48784545724153627</v>
       </c>
       <c r="F82">
         <f t="shared" si="2"/>
-        <v>2.8438674264660884E-2</v>
+        <v>0.37767158250484378</v>
       </c>
       <c r="G82">
         <f t="shared" si="2"/>
-        <v>3.0376254393627972E-2</v>
+        <v>0.51635360939509556</v>
       </c>
       <c r="H82">
         <f t="shared" si="2"/>
-        <v>2.2103676677284467E-2</v>
+        <v>0.24247090127480542</v>
       </c>
       <c r="I82">
         <f t="shared" si="2"/>
-        <v>4.1100026628445058E-2</v>
+        <v>1.0032432909789422</v>
       </c>
       <c r="J82">
         <f t="shared" si="2"/>
-        <v>3.5743954278848494E-2</v>
+        <v>0.87009857840675753</v>
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>2.8020442262459342E-2</v>
+        <v>0.1707044038517731</v>
       </c>
       <c r="L82">
         <f t="shared" si="2"/>
-        <v>2.5247152474643621E-2</v>
+        <v>0.30712430350758113</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83">
-        <f>B82*1.96</f>
-        <v>3.68114661707203E-2</v>
+        <f>B78-B81</f>
+        <v>-0.68227669604177976</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83:L83" si="3">C82*1.96</f>
-        <v>3.9266173893807953E-2</v>
+        <f t="shared" ref="C83:L83" si="3">C78-C81</f>
+        <v>-0.59526538999871925</v>
       </c>
       <c r="D83">
         <f t="shared" si="3"/>
-        <v>3.4565876121556663E-2</v>
+        <v>-0.63538633821943402</v>
       </c>
       <c r="E83">
         <f t="shared" si="3"/>
-        <v>5.20859774510899E-2</v>
+        <v>0.3872766335633413</v>
       </c>
       <c r="F83">
         <f t="shared" si="3"/>
-        <v>5.5739801558735334E-2</v>
+        <v>0.26492036972781974</v>
       </c>
       <c r="G83">
         <f t="shared" si="3"/>
-        <v>5.9537458611510823E-2</v>
+        <v>0.39603099386126861</v>
       </c>
       <c r="H83">
         <f t="shared" si="3"/>
-        <v>4.3323206287477552E-2</v>
+        <v>0.15584135604884508</v>
       </c>
       <c r="I83">
         <f t="shared" si="3"/>
-        <v>8.0556052191752311E-2</v>
+        <v>0.83998813950830487</v>
       </c>
       <c r="J83">
         <f t="shared" si="3"/>
-        <v>7.0058150386543047E-2</v>
+        <v>0.72885315717147792</v>
       </c>
       <c r="K83">
         <f t="shared" si="3"/>
-        <v>5.4920066834420307E-2</v>
+        <v>6.1825734720440777E-2</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>4.9484418850301498E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84">
-        <f>B80+B83</f>
-        <v>-0.61152631785167033</v>
-      </c>
-      <c r="C84">
-        <f t="shared" ref="C84:L84" si="4">C80+C83</f>
-        <v>-0.51551657275795404</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="4"/>
-        <v>-0.5669943892155197</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="4"/>
-        <v>0.50122140961661032</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="4"/>
-        <v>0.37862184894622686</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="4"/>
-        <v>0.51665939292650154</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="4"/>
-        <v>0.2431279170764743</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="4"/>
-        <v>1.0049983649163197</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="4"/>
-        <v>0.87142312651261655</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="4"/>
-        <v>0.1811734516124491</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="4"/>
-        <v>0.30680164237629548</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85">
-        <f>B80-B83</f>
-        <v>-0.6851492501931109</v>
-      </c>
-      <c r="C85">
-        <f t="shared" ref="C85:L85" si="5">C80-C83</f>
-        <v>-0.5940489205455699</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="5"/>
-        <v>-0.63612614145863311</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="5"/>
-        <v>0.39704945471443054</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="5"/>
-        <v>0.26714224582875623</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="5"/>
-        <v>0.39758447570347993</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="5"/>
-        <v>0.15648150450151921</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="5"/>
-        <v>0.84388626053281501</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="5"/>
-        <v>0.73130682573953043</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="5"/>
-        <v>7.1333317943608504E-2</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="5"/>
-        <v>0.20783280467569246</v>
+        <v>0.20694804242513229</v>
       </c>
     </row>
   </sheetData>
